--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4601C2C9-8A62-7B4B-9DFF-0C4530B04F00}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA5FD3-EAE8-CB4E-97D7-B766A29AD948}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="27300" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="ws">'#system'!$V$2:$V$16</definedName>
     <definedName name="xml">'#system'!$W$2:$W$11</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1297,13 +1297,13 @@
     <t>multiply2</t>
   </si>
   <si>
-    <t>SkipIf(${fixture) = 15.2)</t>
-  </si>
-  <si>
     <t>macro2 done!</t>
   </si>
   <si>
     <t>The time now is $(sysdate|now|HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>SkipIf(${fixture} = 15.2)</t>
   </si>
 </sst>
 </file>
@@ -3266,7 +3266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3386,7 +3386,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="13"/>
@@ -3404,7 +3404,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3424,7 +3424,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -12720,7 +12720,7 @@
     <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D694" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="444">
   <si>
     <t>description</t>
   </si>
@@ -1391,6 +1391,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="128" x14ac:knownFonts="1">
+  <fonts count="143" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2204,8 +2207,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3442,8 +3539,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="226">
+  <borders count="254">
     <border>
       <left/>
       <right/>
@@ -5722,13 +5972,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6113,49 +6645,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="194" borderId="205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="194" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="197" borderId="209" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="197" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="200" borderId="213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="200" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="206" borderId="217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="206" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="209" borderId="221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="209" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="212" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="212" borderId="225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="212" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="233" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="236" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6453,7 +7030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7660,7 +8237,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60">
@@ -7668,7 +8245,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61">
@@ -7676,7 +8253,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62">
@@ -7684,7 +8261,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -7692,7 +8269,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>433</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -7700,7 +8277,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>133</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65">
@@ -7708,7 +8285,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -7716,7 +8293,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -7724,7 +8301,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
@@ -7732,7 +8309,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
@@ -7740,7 +8317,7 @@
         <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -7748,7 +8325,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
@@ -7756,7 +8333,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -7764,7 +8341,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -7772,7 +8349,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -7780,7 +8357,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
@@ -7788,7 +8365,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -7796,7 +8373,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77">
@@ -7804,7 +8381,7 @@
         <v>420</v>
       </c>
       <c r="U77" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -7812,7 +8389,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
@@ -7820,7 +8397,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -7828,7 +8405,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -7836,7 +8413,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82">
@@ -7844,7 +8421,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -7852,7 +8429,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -7860,7 +8437,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85">
@@ -7868,7 +8445,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -7876,7 +8453,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -7884,7 +8461,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88">
@@ -7892,7 +8469,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -7900,7 +8477,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
@@ -7908,7 +8485,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91">
@@ -7916,7 +8493,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
@@ -7924,101 +8501,106 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -35,8 +35,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1394,6 +1394,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="143" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2301,8 +2325,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="246">
+  <fills count="273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3692,8 +3810,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="254">
+  <borders count="282">
     <border>
       <left/>
       <right/>
@@ -6254,13 +6525,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6690,49 +7243,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="221" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="221" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="224" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="224" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="227" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="227" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="233" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="233" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="236" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="236" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="239" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="239" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="239" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="248" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="251" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="254" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="260" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="263" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7030,7 +7628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7354,6 +7952,9 @@
       <c r="C5" t="s">
         <v>217</v>
       </c>
+      <c r="D5" t="s">
+        <v>444</v>
+      </c>
       <c r="E5" t="s">
         <v>329</v>
       </c>
@@ -7447,7 +8048,7 @@
         <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="W6" t="s">
         <v>173</v>
@@ -7502,6 +8103,9 @@
       <c r="U7" t="s">
         <v>92</v>
       </c>
+      <c r="V7" t="s">
+        <v>451</v>
+      </c>
       <c r="W7" t="s">
         <v>174</v>
       </c>
@@ -7552,6 +8156,9 @@
       <c r="U8" t="s">
         <v>93</v>
       </c>
+      <c r="V8" t="s">
+        <v>168</v>
+      </c>
       <c r="W8" t="s">
         <v>175</v>
       </c>
@@ -7620,7 +8227,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="M10" t="s">
         <v>425</v>
@@ -7655,7 +8262,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -7687,7 +8294,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -7715,6 +8322,9 @@
       <c r="I13" t="s">
         <v>74</v>
       </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
       <c r="M13" t="s">
         <v>86</v>
       </c>
@@ -7865,7 +8475,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -7882,7 +8492,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -7898,6 +8508,9 @@
       <c r="E22" t="s">
         <v>292</v>
       </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
       <c r="U22" t="s">
         <v>102</v>
       </c>
@@ -8125,7 +8738,7 @@
         <v>335</v>
       </c>
       <c r="U45" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46">
@@ -8133,7 +8746,7 @@
         <v>205</v>
       </c>
       <c r="U46" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
@@ -8141,7 +8754,7 @@
         <v>313</v>
       </c>
       <c r="U47" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -8149,7 +8762,7 @@
         <v>332</v>
       </c>
       <c r="U48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -8157,7 +8770,7 @@
         <v>361</v>
       </c>
       <c r="U49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -8165,7 +8778,7 @@
         <v>295</v>
       </c>
       <c r="U50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -8173,7 +8786,7 @@
         <v>349</v>
       </c>
       <c r="U51" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -8181,7 +8794,7 @@
         <v>324</v>
       </c>
       <c r="U52" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
@@ -8189,7 +8802,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -8197,7 +8810,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -8205,7 +8818,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -8213,7 +8826,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -8221,7 +8834,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -8229,7 +8842,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -8237,7 +8850,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -8245,7 +8858,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
@@ -8253,7 +8866,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
@@ -8261,7 +8874,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63">
@@ -8269,7 +8882,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>132</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64">
@@ -8277,7 +8890,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>433</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -8285,7 +8898,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -8293,7 +8906,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -8301,7 +8914,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -8309,7 +8922,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
@@ -8317,7 +8930,7 @@
         <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70">
@@ -8325,7 +8938,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -8333,7 +8946,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -8341,7 +8954,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -8349,7 +8962,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -8357,7 +8970,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -8365,7 +8978,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -8373,7 +8986,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -8381,7 +8994,7 @@
         <v>420</v>
       </c>
       <c r="U77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -8389,7 +9002,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -8397,7 +9010,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
@@ -8405,7 +9018,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -8413,7 +9026,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82">
@@ -8421,7 +9034,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83">
@@ -8429,7 +9042,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84">
@@ -8437,7 +9050,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -8445,7 +9058,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -8453,7 +9066,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -8461,7 +9074,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
@@ -8469,7 +9082,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -8477,7 +9090,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -8485,7 +9098,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
@@ -8493,7 +9106,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92">
@@ -8501,106 +9114,116 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>157</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5374" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1425,7 +1425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="173" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2419,8 +2419,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="273">
+  <fills count="300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3963,8 +4057,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="282">
+  <borders count="310">
     <border>
       <left/>
       <right/>
@@ -6807,13 +7054,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7288,49 +7817,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="248" borderId="261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="261" fillId="248" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="251" borderId="265" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="251" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="254" borderId="269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="254" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="260" borderId="273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="260" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="263" borderId="277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="263" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="266" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="266" borderId="281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="266" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="287" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="290" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5374" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1425,7 +1425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="173" x14ac:knownFonts="1">
+  <fonts count="188" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2513,8 +2513,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="300">
+  <fills count="327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4210,8 +4304,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="310">
+  <borders count="338">
     <border>
       <left/>
       <right/>
@@ -7336,13 +7583,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7862,49 +8391,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="275" borderId="289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="275" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="278" borderId="293" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="293" fillId="278" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="281" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="281" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="287" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="287" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="290" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="290" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="293" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="293" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="293" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="314" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="317" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8657,7 +9231,7 @@
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -8713,7 +9287,7 @@
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -8763,7 +9337,7 @@
         <v>383</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -8801,7 +9375,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>425</v>
@@ -8836,7 +9410,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -8868,7 +9442,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -8897,7 +9471,7 @@
         <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
@@ -8924,6 +9498,9 @@
       </c>
       <c r="I14" t="s">
         <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7200" uniqueCount="455">
   <si>
     <t>description</t>
   </si>
@@ -1418,6 +1418,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1434,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="188" x14ac:knownFonts="1">
+  <fonts count="233" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2607,8 +2616,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="327">
+  <fills count="408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4457,8 +4748,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="338">
+  <borders count="422">
     <border>
       <left/>
       <right/>
@@ -7865,13 +8615,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8436,49 +10032,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="302" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="302" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="305" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="305" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="308" borderId="325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="325" fillId="308" fontId="176" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="314" borderId="329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="314" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="317" borderId="333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="317" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="320" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="320" borderId="337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="320" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="329" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="332" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="335" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="357" fillId="341" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="344" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="347" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="347" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="356" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="359" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="362" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="368" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="389" fillId="371" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="374" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="374" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="395" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="398" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8962,7 +10693,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -9036,7 +10767,7 @@
         <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="H4" t="s">
         <v>344</v>
@@ -9107,7 +10838,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -9169,7 +10900,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -9225,7 +10956,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -9281,7 +11012,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -9333,6 +11064,9 @@
       <c r="E9" t="s">
         <v>299</v>
       </c>
+      <c r="F9" t="s">
+        <v>317</v>
+      </c>
       <c r="I9" t="s">
         <v>383</v>
       </c>
@@ -9370,6 +11104,9 @@
       </c>
       <c r="E10" t="s">
         <v>345</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,12 +13,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7200" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8122" uniqueCount="459">
   <si>
     <t>description</t>
   </si>
@@ -1427,6 +1427,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="233" x14ac:knownFonts="1">
+  <fonts count="263" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2898,8 +2910,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="408">
+  <fills count="462">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5207,8 +5407,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="422">
+  <borders count="478">
     <border>
       <left/>
       <right/>
@@ -9461,13 +9967,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="276">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10167,49 +11237,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="383" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="383" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="386" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="386" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="389" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="389" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="392" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="395" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="395" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="398" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="398" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="401" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="401" borderId="421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="421" fillId="401" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="407" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="404" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="410" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="413" fontId="235" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="416" fontId="236" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="419" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="422" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="425" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="428" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="428" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="434" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="431" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="449" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="452" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10613,7 +11773,7 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -10693,7 +11853,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>454</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -10767,7 +11927,7 @@
         <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H4" t="s">
         <v>344</v>
@@ -10838,7 +11998,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -10900,7 +12060,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -10956,7 +12116,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -11012,7 +12172,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -11065,7 +12225,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -11106,7 +12266,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -11143,6 +12303,9 @@
       <c r="E11" t="s">
         <v>267</v>
       </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
@@ -11175,6 +12338,9 @@
       <c r="E12" t="s">
         <v>256</v>
       </c>
+      <c r="F12" t="s">
+        <v>317</v>
+      </c>
       <c r="I12" t="s">
         <v>73</v>
       </c>
@@ -11204,6 +12370,9 @@
       <c r="E13" t="s">
         <v>309</v>
       </c>
+      <c r="F13" t="s">
+        <v>318</v>
+      </c>
       <c r="I13" t="s">
         <v>74</v>
       </c>
@@ -11391,7 +12560,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="E22" t="s">
         <v>292</v>
@@ -11408,7 +12577,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -11422,7 +12591,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -11436,7 +12605,7 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>419</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -11450,7 +12619,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -11461,7 +12630,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -11472,7 +12641,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -11483,7 +12652,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -11494,7 +12663,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -11505,7 +12674,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -11516,7 +12685,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -11526,6 +12695,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" t="s">
         <v>253</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8122" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="461">
   <si>
     <t>description</t>
   </si>
@@ -1439,6 +1439,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="263" x14ac:knownFonts="1">
+  <fonts count="293" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3098,8 +3104,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="462">
+  <fills count="516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5713,8 +5907,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="478">
+  <borders count="534">
     <border>
       <left/>
       <right/>
@@ -10531,13 +11031,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11327,49 +12391,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="437" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="457" fillId="437" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="440" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="461" fillId="440" fontId="250" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="443" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="465" fillId="443" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="446" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="449" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="469" fillId="449" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="452" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="473" fillId="452" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="455" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="455" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="477" fillId="455" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="461" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="458" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="485" fillId="464" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="489" fillId="467" fontId="265" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="493" fillId="470" fontId="266" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="473" fontId="268" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="497" fillId="476" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="501" fillId="479" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="482" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="505" fillId="482" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="488" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="485" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="491" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="494" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="497" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="503" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="506" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11667,7 +12821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -13054,7 +14208,7 @@
         <v>420</v>
       </c>
       <c r="U77" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78">
@@ -13062,7 +14216,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -13070,7 +14224,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -13078,7 +14232,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81">
@@ -13086,7 +14240,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -13094,7 +14248,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83">
@@ -13102,7 +14256,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84">
@@ -13110,7 +14264,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85">
@@ -13118,7 +14272,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
@@ -13126,7 +14280,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -13134,7 +14288,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -13142,7 +14296,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
@@ -13150,7 +14304,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -13158,7 +14312,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -13166,7 +14320,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -13174,116 +14328,121 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9509" uniqueCount="462">
   <si>
     <t>description</t>
   </si>
@@ -1445,6 +1445,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1455,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="293" x14ac:knownFonts="1">
+  <fonts count="308" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3292,8 +3295,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="516">
+  <fills count="543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6213,8 +6310,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="534">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -11595,13 +11845,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="321">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12481,49 +13013,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="491" borderId="513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="513" fillId="491" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="494" borderId="517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="517" fillId="494" fontId="280" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="497" borderId="521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="521" fillId="497" fontId="281" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="500" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="503" borderId="525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="525" fillId="503" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="506" borderId="529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="529" fillId="506" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="509" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="509" borderId="533" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="533" fillId="509" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="515" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="512" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="530" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="533" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12821,7 +13398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -14152,7 +14729,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71">
@@ -14160,7 +14737,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -14168,7 +14745,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -14176,7 +14753,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -14184,7 +14761,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -14192,7 +14769,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -14200,7 +14777,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
@@ -14208,7 +14785,7 @@
         <v>420</v>
       </c>
       <c r="U77" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
@@ -14216,7 +14793,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79">
@@ -14224,7 +14801,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -14232,7 +14809,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -14240,7 +14817,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82">
@@ -14248,7 +14825,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -14256,7 +14833,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
@@ -14264,7 +14841,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85">
@@ -14272,7 +14849,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86">
@@ -14280,7 +14857,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -14288,7 +14865,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -14296,7 +14873,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -14304,7 +14881,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -14312,7 +14889,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -14320,7 +14897,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -14328,121 +14905,126 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9509" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9973" uniqueCount="463">
   <si>
     <t>description</t>
   </si>
@@ -1448,6 +1448,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1458,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="308" x14ac:knownFonts="1">
+  <fonts count="323" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3389,8 +3392,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="543">
+  <fills count="570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6463,8 +6560,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="562">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -6486,6 +6736,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12133,7 +12665,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="336">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13058,49 +13590,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="518" borderId="541" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="541" fillId="518" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="521" borderId="545" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="545" fillId="521" fontId="295" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="524" borderId="549" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="549" fillId="524" fontId="296" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="527" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="530" borderId="553" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="553" fillId="530" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="533" borderId="557" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="557" fillId="533" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="536" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="536" borderId="561" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="561" fillId="536" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="539" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="542" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="539" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="557" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="560" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13729,7 +14306,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -13791,7 +14368,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -13847,7 +14424,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>453</v>
       </c>
       <c r="I7" t="s">
         <v>72</v>
@@ -13903,7 +14480,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
@@ -13956,7 +14533,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -13997,7 +14574,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -14035,7 +14612,7 @@
         <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -14070,7 +14647,7 @@
         <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
@@ -14102,7 +14679,7 @@
         <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
@@ -14132,6 +14709,9 @@
       </c>
       <c r="E14" t="s">
         <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>318</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -21,7 +21,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9973" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10438" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1451,6 +1451,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1461,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="323" x14ac:knownFonts="1">
+  <fonts count="338" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3486,8 +3489,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="570">
+  <fills count="597">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6713,8 +6810,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="590">
+  <borders count="618">
     <border>
       <left/>
       <right/>
@@ -6736,6 +6986,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12665,7 +13197,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="351">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13635,49 +14167,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="545" borderId="569" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="569" fillId="545" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="548" borderId="573" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="573" fillId="548" fontId="310" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="551" borderId="577" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="577" fillId="551" fontId="311" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="554" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="557" borderId="581" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="581" fillId="557" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="560" borderId="585" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="585" fillId="560" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="563" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="563" borderId="589" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="589" fillId="563" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="566" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="569" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="566" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="584" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="587" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14714,7 +15291,7 @@
         <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>463</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -14743,7 +15320,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
@@ -14769,7 +15346,7 @@
         <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
         <v>245</v>
@@ -14792,7 +15369,7 @@
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="U17" t="s">
         <v>97</v>
@@ -14809,7 +15386,7 @@
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -14826,7 +15403,7 @@
         <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
@@ -14843,7 +15420,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -14860,7 +15437,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -14877,7 +15454,7 @@
         <v>292</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -14892,6 +15469,9 @@
       </c>
       <c r="E23" t="s">
         <v>283</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10438" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1454,6 +1454,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="338" x14ac:knownFonts="1">
+  <fonts count="353" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3583,8 +3589,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="597">
+  <fills count="624">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6963,8 +7063,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="618">
+  <borders count="646">
     <border>
       <left/>
       <right/>
@@ -6986,6 +7239,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13197,7 +13732,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="366">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14212,49 +14747,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="572" borderId="597" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="597" fillId="572" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="575" borderId="601" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="601" fillId="575" fontId="325" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="578" borderId="605" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="605" fillId="578" fontId="326" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="581" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="584" borderId="609" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="609" fillId="584" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="587" borderId="613" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="613" fillId="587" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="590" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="590" borderId="617" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="617" fillId="590" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="596" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="593" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="599" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="602" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="605" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="611" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="614" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14729,7 +15309,7 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="D3" t="s">
         <v>358</v>
@@ -14803,7 +15383,7 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -14874,7 +15454,7 @@
         <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
         <v>444</v>
@@ -14939,7 +15519,7 @@
         <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>381</v>
@@ -14995,7 +15575,7 @@
         <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>359</v>
@@ -15051,7 +15631,7 @@
         <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
         <v>360</v>
@@ -15104,7 +15684,7 @@
         <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>299</v>
@@ -15145,7 +15725,7 @@
         <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
         <v>345</v>
@@ -15183,7 +15763,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
         <v>267</v>
@@ -15218,7 +15798,7 @@
         <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
         <v>256</v>
@@ -15250,7 +15830,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
         <v>309</v>
@@ -15282,7 +15862,7 @@
         <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>257</v>
@@ -15314,7 +15894,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>258</v>
@@ -15340,7 +15920,7 @@
         <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
         <v>310</v>
@@ -15363,7 +15943,7 @@
         <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="E17" t="s">
         <v>81</v>
@@ -15380,7 +15960,7 @@
         <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>418</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
@@ -15397,7 +15977,7 @@
         <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>289</v>
@@ -15414,7 +15994,7 @@
         <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>290</v>
@@ -15431,7 +16011,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>291</v>
@@ -15448,7 +16028,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>314</v>
       </c>
       <c r="E22" t="s">
         <v>292</v>
@@ -15465,7 +16045,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -15482,7 +16062,7 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>455</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -15496,7 +16076,7 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>419</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
@@ -15510,7 +16090,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -15521,7 +16101,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -15532,7 +16112,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -15543,7 +16123,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -15554,7 +16134,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -15565,7 +16145,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -15576,7 +16156,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -15587,7 +16167,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
         <v>253</v>
@@ -15597,6 +16177,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
       <c r="E34" t="s">
         <v>323</v>
       </c>
@@ -15605,6 +16188,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
       <c r="E35" t="s">
         <v>300</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11373" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1460,6 +1460,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="353" x14ac:knownFonts="1">
+  <fonts count="368" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3683,8 +3686,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="624">
+  <fills count="651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7216,8 +7313,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="646">
+  <borders count="674">
     <border>
       <left/>
       <right/>
@@ -7239,6 +7489,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13732,7 +14264,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="381">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14792,49 +15324,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="599" borderId="625" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="625" fillId="599" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="602" borderId="629" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="629" fillId="602" fontId="340" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="605" borderId="633" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="633" fillId="605" fontId="341" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="608" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="611" borderId="637" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="637" fillId="611" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="614" borderId="641" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="641" fillId="614" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="617" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="617" borderId="645" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="645" fillId="617" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="620" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="623" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="620" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="626" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="629" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="632" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="638" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="641" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="650" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15132,7 +15709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16339,7 +16916,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54">
@@ -16347,7 +16924,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -16355,7 +16932,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -16363,7 +16940,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -16371,7 +16948,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -16379,7 +16956,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -16387,7 +16964,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -16395,7 +16972,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -16403,7 +16980,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62">
@@ -16411,7 +16988,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63">
@@ -16419,7 +16996,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
@@ -16427,7 +17004,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65">
@@ -16435,7 +17012,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -16443,7 +17020,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -16451,7 +17028,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -16459,7 +17036,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -16467,7 +17044,7 @@
         <v>401</v>
       </c>
       <c r="U69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70">
@@ -16475,7 +17052,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71">
@@ -16483,7 +17060,7 @@
         <v>402</v>
       </c>
       <c r="U71" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72">
@@ -16491,7 +17068,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -16499,7 +17076,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -16507,7 +17084,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -16515,7 +17092,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -16523,7 +17100,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -16531,7 +17108,7 @@
         <v>420</v>
       </c>
       <c r="U77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -16539,7 +17116,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -16547,7 +17124,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80">
@@ -16555,7 +17132,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -16563,7 +17140,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82">
@@ -16571,7 +17148,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
@@ -16579,7 +17156,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -16587,7 +17164,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -16595,7 +17172,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86">
@@ -16603,7 +17180,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87">
@@ -16611,7 +17188,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -16619,7 +17196,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -16627,7 +17204,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -16635,7 +17212,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -16643,7 +17220,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
@@ -16651,126 +17228,131 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11373" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11841" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1470,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="368" x14ac:knownFonts="1">
+  <fonts count="383" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3780,8 +3780,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="651">
+  <fills count="678">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7466,8 +7560,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="674">
+  <borders count="702">
     <border>
       <left/>
       <right/>
@@ -7489,6 +7736,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14264,7 +14793,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="396">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15369,49 +15898,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="626" borderId="653" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="653" fillId="626" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="629" borderId="657" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="657" fillId="629" fontId="355" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="632" borderId="661" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="661" fillId="632" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="635" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="638" borderId="665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="665" fillId="638" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="641" borderId="669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="669" fillId="641" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="644" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="644" borderId="673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="673" fillId="644" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="647" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="650" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="650" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="647" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="653" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="656" borderId="685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="659" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="665" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="668" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,36 +13,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11841" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12315" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1463,6 +1464,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1486,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="383" x14ac:knownFonts="1">
+  <fonts count="399" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3874,8 +3890,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="678">
+  <fills count="705">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7713,8 +7830,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="702">
+  <borders count="730">
     <border>
       <left/>
       <right/>
@@ -7736,6 +8006,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14793,7 +15345,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="412">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15943,49 +16495,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="653" borderId="681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="681" fillId="653" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="656" borderId="685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="685" fillId="656" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="659" borderId="689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="689" fillId="659" fontId="371" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="662" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="665" borderId="693" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="693" fillId="665" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="668" borderId="697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="697" fillId="668" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="671" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="671" borderId="701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="701" fillId="671" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="674" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="677" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="677" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="674" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="680" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="683" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="686" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="689" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="695" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="698" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16283,7 +16883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16300,75 +16900,78 @@
         <v>364</v>
       </c>
       <c r="C1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>326</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>387</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>415</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>416</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>350</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>388</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>417</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -16380,1553 +16983,1568 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>456</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>342</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>377</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>421</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>422</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>423</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>246</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>211</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>389</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>427</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>428</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>374</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>398</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>89</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>169</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>436</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>366</v>
       </c>
       <c r="C3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" t="s">
         <v>464</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>358</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>343</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>334</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>327</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>424</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>233</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>212</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>390</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>429</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>375</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>399</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>165</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>170</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>357</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>380</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>457</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>344</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>231</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>328</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>234</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>213</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>391</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>430</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>351</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>400</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>347</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>166</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>171</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>437</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>465</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>444</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>329</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>462</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>341</v>
       </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>470</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>235</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>214</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>392</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>431</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>352</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>348</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>167</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>172</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>438</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>381</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>454</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>236</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>384</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>393</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>354</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>91</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>450</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>173</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>439</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>453</v>
       </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>426</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>394</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>353</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>451</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>174</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>440</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>311</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>360</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>321</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>238</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>395</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>355</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>168</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>175</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>441</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>299</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>322</v>
       </c>
-      <c r="I9" t="s">
-        <v>383</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>239</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>396</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>356</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>203</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>182</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>308</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>345</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>458</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>425</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>240</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>397</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>250</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>183</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
         <v>249</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>267</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>315</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
         <v>446</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>85</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>241</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>251</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>252</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>312</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>316</v>
       </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>242</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
         <v>334</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>309</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>86</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>247</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>319</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>257</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>318</v>
       </c>
-      <c r="I14" t="s">
-        <v>463</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>87</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>243</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>95</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>463</v>
+      </c>
+      <c r="N15" t="s">
         <v>88</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>244</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
         <v>245</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>67</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" t="s">
         <v>379</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
-        <v>373</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
         <v>97</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>416</v>
-      </c>
-      <c r="C18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" t="s">
         <v>418</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>373</v>
+      </c>
+      <c r="V18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>289</v>
       </c>
-      <c r="I19" t="s">
-        <v>385</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>290</v>
       </c>
-      <c r="I20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>385</v>
+      </c>
+      <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>291</v>
       </c>
-      <c r="I21" t="s">
-        <v>445</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>314</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>292</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>445</v>
+      </c>
+      <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>283</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>455</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>272</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>218</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" t="s">
-        <v>275</v>
-      </c>
-      <c r="U26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>419</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>210</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>62</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>206</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>205</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>401</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>402</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>420</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12315" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12790" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1479,6 +1479,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="399" x14ac:knownFonts="1">
+  <fonts count="415" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3991,8 +3997,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="705">
+  <fills count="732">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7983,8 +8090,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="730">
+  <borders count="758">
     <border>
       <left/>
       <right/>
@@ -8006,6 +8266,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15345,7 +15887,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="428">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16540,52 +17082,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="680" borderId="709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="709" fillId="680" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="683" borderId="713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="713" fillId="683" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="686" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="686" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="689" borderId="717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="717" fillId="689" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="692" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="695" borderId="721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="721" fillId="695" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="698" borderId="725" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="725" fillId="698" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="701" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="701" borderId="729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="729" fillId="701" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="689" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="704" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="704" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="689" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="689" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="707" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="710" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="713" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="716" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="722" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="725" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16883,7 +17473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -16983,7 +17573,7 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -18092,7 +18682,7 @@
         <v>349</v>
       </c>
       <c r="V51" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52">
@@ -18100,7 +18690,7 @@
         <v>324</v>
       </c>
       <c r="V52" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -18108,7 +18698,7 @@
         <v>261</v>
       </c>
       <c r="V53" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
@@ -18116,7 +18706,7 @@
         <v>285</v>
       </c>
       <c r="V54" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
@@ -18124,7 +18714,7 @@
         <v>286</v>
       </c>
       <c r="V55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -18132,7 +18722,7 @@
         <v>287</v>
       </c>
       <c r="V56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -18140,7 +18730,7 @@
         <v>296</v>
       </c>
       <c r="V57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -18148,7 +18738,7 @@
         <v>305</v>
       </c>
       <c r="V58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -18156,7 +18746,7 @@
         <v>330</v>
       </c>
       <c r="V59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
@@ -18164,7 +18754,7 @@
         <v>302</v>
       </c>
       <c r="V60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -18172,7 +18762,7 @@
         <v>303</v>
       </c>
       <c r="V61" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -18180,7 +18770,7 @@
         <v>362</v>
       </c>
       <c r="V62" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63">
@@ -18188,7 +18778,7 @@
         <v>363</v>
       </c>
       <c r="V63" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64">
@@ -18196,7 +18786,7 @@
         <v>338</v>
       </c>
       <c r="V64" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65">
@@ -18204,7 +18794,7 @@
         <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66">
@@ -18212,7 +18802,7 @@
         <v>262</v>
       </c>
       <c r="V66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -18220,7 +18810,7 @@
         <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -18228,7 +18818,7 @@
         <v>307</v>
       </c>
       <c r="V68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -18236,7 +18826,7 @@
         <v>401</v>
       </c>
       <c r="V69" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -18244,7 +18834,7 @@
         <v>297</v>
       </c>
       <c r="V70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71">
@@ -18252,7 +18842,7 @@
         <v>402</v>
       </c>
       <c r="V71" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72">
@@ -18260,7 +18850,7 @@
         <v>255</v>
       </c>
       <c r="V72" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73">
@@ -18268,7 +18858,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -18276,7 +18866,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -18284,7 +18874,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -18292,7 +18882,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -18300,7 +18890,7 @@
         <v>420</v>
       </c>
       <c r="V77" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -18308,7 +18898,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -18316,7 +18906,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -18324,7 +18914,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81">
@@ -18332,7 +18922,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
@@ -18340,7 +18930,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
@@ -18348,7 +18938,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -18356,7 +18946,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -18364,7 +18954,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -18372,7 +18962,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87">
@@ -18380,7 +18970,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88">
@@ -18388,7 +18978,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
@@ -18396,7 +18986,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -18404,7 +18994,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -18412,7 +19002,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -18420,131 +19010,136 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -20,7 +20,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12790" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14219" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1485,6 +1485,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="415" x14ac:knownFonts="1">
+  <fonts count="463" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4098,8 +4107,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="732">
+  <fills count="813">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8243,8 +8555,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="758">
+  <borders count="842">
     <border>
       <left/>
       <right/>
@@ -8266,6 +9037,852 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15887,7 +17504,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="476">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17130,52 +18747,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="707" borderId="737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="737" fillId="707" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="710" borderId="741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="741" fillId="710" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="713" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="713" fontId="402" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="716" borderId="745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="745" fillId="716" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="719" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="719" fontId="405" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="722" borderId="749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="749" fillId="722" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="725" borderId="753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="753" fillId="725" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="728" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="728" borderId="757" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="757" fillId="728" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="731" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="731" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="716" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="716" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="765" fillId="734" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="769" fillId="737" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="740" fontId="418" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="773" fillId="743" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="746" fontId="421" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="777" fillId="749" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="781" fillId="752" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="755" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="785" fillId="755" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="758" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="743" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="793" fillId="761" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="797" fillId="764" fontId="433" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="801" fillId="767" fontId="434" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="801" fillId="770" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="773" fontId="437" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="805" fillId="776" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="809" fillId="779" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="813" fillId="782" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="813" fillId="782" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="770" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="785" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="770" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="788" borderId="821" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="791" borderId="825" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="794" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="797" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="803" borderId="833" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="806" borderId="837" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="812" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17591,7 +19352,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>476</v>
       </c>
       <c r="J2" t="s">
         <v>308</v>
@@ -17674,7 +19435,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
         <v>334</v>
@@ -17745,7 +19506,7 @@
         <v>457</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J4" t="s">
         <v>231</v>
@@ -17816,7 +19577,7 @@
         <v>462</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
         <v>470</v>
@@ -17876,6 +19637,9 @@
       </c>
       <c r="G6" t="s">
         <v>454</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
       </c>
       <c r="J6" t="s">
         <v>64</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -21,7 +21,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14219" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1494,6 +1494,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1513,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="463" x14ac:knownFonts="1">
+  <fonts count="511" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4410,8 +4422,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="813">
+  <fills count="894">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9014,8 +9329,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="842">
+  <borders count="926">
     <border>
       <left/>
       <right/>
@@ -9037,6 +9811,852 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17504,7 +19124,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="524">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18891,52 +20511,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="788" borderId="821" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="821" fillId="788" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="791" borderId="825" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="825" fillId="791" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="794" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="829" fillId="794" fontId="450" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="797" borderId="829" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="829" fillId="797" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="800" fontId="453" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="455" fillId="803" borderId="833" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="806" borderId="837" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="458" fillId="809" borderId="841" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="459" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="812" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="461" fillId="797" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="833" fillId="803" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="837" fillId="806" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="809" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="841" fillId="809" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="797" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="812" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="797" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="849" fillId="815" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="853" fillId="818" fontId="465" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="857" fillId="821" fontId="466" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="857" fillId="824" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="827" fontId="469" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="861" fillId="830" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="865" fillId="833" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="869" fillId="836" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="869" fillId="836" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="824" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="839" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="824" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="877" fillId="842" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="881" fillId="845" fontId="481" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="885" fillId="848" fontId="482" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="885" fillId="851" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="854" fontId="485" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="889" fillId="857" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="893" fillId="860" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="897" fillId="863" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="897" fillId="863" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="851" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="866" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="851" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="869" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="872" borderId="909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="875" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="884" borderId="917" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="887" borderId="921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="893" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19234,7 +20998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -20100,7 +21864,7 @@
         <v>289</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="V19" t="s">
         <v>99</v>
@@ -20117,7 +21881,7 @@
         <v>290</v>
       </c>
       <c r="J20" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
@@ -20134,7 +21898,7 @@
         <v>291</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
@@ -20151,7 +21915,7 @@
         <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
@@ -20168,7 +21932,7 @@
         <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="V23" t="s">
         <v>103</v>
@@ -20185,7 +21949,7 @@
         <v>272</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>104</v>
@@ -20201,6 +21965,9 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>105</v>
       </c>
@@ -20224,7 +21991,7 @@
         <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="F27" t="s">
         <v>259</v>
@@ -20235,7 +22002,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>479</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
@@ -20246,7 +22013,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="F29" t="s">
         <v>277</v>
@@ -20257,7 +22024,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>210</v>
@@ -20268,7 +22035,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
         <v>268</v>
@@ -20279,7 +22046,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
         <v>278</v>
@@ -20290,7 +22057,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
         <v>253</v>
@@ -20301,7 +22068,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
         <v>323</v>
@@ -20312,7 +22079,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
         <v>300</v>
@@ -20322,6 +22089,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
       <c r="F36" t="s">
         <v>254</v>
       </c>
@@ -20330,6 +22100,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
       <c r="F37" t="s">
         <v>301</v>
       </c>
@@ -20622,7 +22395,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74">
@@ -20630,7 +22403,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -20638,7 +22411,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -20646,7 +22419,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -20654,7 +22427,7 @@
         <v>420</v>
       </c>
       <c r="V77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -20662,7 +22435,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -20670,7 +22443,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -20678,7 +22451,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -20686,7 +22459,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82">
@@ -20694,7 +22467,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
@@ -20702,7 +22475,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -20710,7 +22483,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -20718,7 +22491,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -20726,7 +22499,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -20734,7 +22507,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88">
@@ -20742,7 +22515,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89">
@@ -20750,7 +22523,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -20758,7 +22531,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -20766,7 +22539,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -20774,136 +22547,141 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16137" uniqueCount="483">
   <si>
     <t>description</t>
   </si>
@@ -1506,6 +1506,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="511" x14ac:knownFonts="1">
+  <fonts count="527" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4725,8 +4731,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="894">
+  <fills count="921">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9788,8 +9895,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="926">
+  <borders count="954">
     <border>
       <left/>
       <right/>
@@ -9811,6 +10071,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19124,7 +19666,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="524">
+  <cellXfs count="540">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20655,52 +21197,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="869" borderId="905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="905" fillId="869" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="872" borderId="909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="909" fillId="872" fontId="497" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="875" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="875" fontId="498" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="878" borderId="913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="913" fillId="878" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="881" fontId="501" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="503" fillId="884" borderId="917" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="887" borderId="921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="505" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="506" fillId="890" borderId="925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="507" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="508" fillId="893" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="509" fillId="878" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="917" fillId="884" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="921" fillId="887" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="925" fillId="890" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="925" fillId="890" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="878" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="893" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="878" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="896" borderId="933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="899" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="902" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="905" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="911" borderId="945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="914" borderId="949" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="920" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21653,7 +22243,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="N11" t="s">
         <v>85</v>
@@ -21688,7 +22278,7 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -21720,7 +22310,7 @@
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>482</v>
       </c>
       <c r="N13" t="s">
         <v>86</v>
@@ -21752,7 +22342,7 @@
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
         <v>87</v>
@@ -21780,6 +22370,9 @@
       <c r="J15" t="s">
         <v>463</v>
       </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
       <c r="N15" t="s">
         <v>88</v>
       </c>
@@ -21805,6 +22398,9 @@
       </c>
       <c r="J16" t="s">
         <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
       </c>
       <c r="O16" t="s">
         <v>245</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,11 +35,11 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="sms">'#system'!$R$2:$R$2</definedName>
     <definedName name="sound">'#system'!$S$2:$S$5</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16137" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16622" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1512,6 +1512,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="527" x14ac:knownFonts="1">
+  <fonts count="543" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4832,8 +4841,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="921">
+  <fills count="948">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10048,8 +10158,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="954">
+  <borders count="982">
     <border>
       <left/>
       <right/>
@@ -10071,6 +10334,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19666,7 +20211,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="556">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21245,52 +21790,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="896" borderId="933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="933" fillId="896" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="899" borderId="937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="937" fillId="899" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="902" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="941" fillId="902" fontId="514" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="905" borderId="941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="941" fillId="905" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="908" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="911" borderId="945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="520" fillId="914" borderId="949" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="522" fillId="917" borderId="953" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="523" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="920" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="905" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="945" fillId="911" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="949" fillId="914" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="953" fillId="917" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="953" fillId="917" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="905" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="920" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="905" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="923" borderId="961" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="926" borderId="965" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="929" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="932" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="938" borderId="973" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="941" borderId="977" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="947" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21588,7 +22181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -22185,7 +22778,7 @@
         <v>182</v>
       </c>
       <c r="AA9" t="s">
-        <v>228</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10">
@@ -22223,7 +22816,7 @@
         <v>183</v>
       </c>
       <c r="AA10" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11">
@@ -22258,7 +22851,7 @@
         <v>252</v>
       </c>
       <c r="AA11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -22292,6 +22885,9 @@
       <c r="Y12" t="s">
         <v>184</v>
       </c>
+      <c r="AA12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -22324,6 +22920,9 @@
       <c r="Y13" t="s">
         <v>185</v>
       </c>
+      <c r="AA13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -22911,7 +23510,7 @@
         <v>363</v>
       </c>
       <c r="V63" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64">
@@ -22919,7 +23518,7 @@
         <v>338</v>
       </c>
       <c r="V64" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65">
@@ -22927,7 +23526,7 @@
         <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66">
@@ -22935,7 +23534,7 @@
         <v>262</v>
       </c>
       <c r="V66" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67">
@@ -22943,7 +23542,7 @@
         <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -22951,7 +23550,7 @@
         <v>307</v>
       </c>
       <c r="V68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -22959,7 +23558,7 @@
         <v>401</v>
       </c>
       <c r="V69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -22967,7 +23566,7 @@
         <v>297</v>
       </c>
       <c r="V70" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
@@ -22975,7 +23574,7 @@
         <v>402</v>
       </c>
       <c r="V71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72">
@@ -22983,7 +23582,7 @@
         <v>255</v>
       </c>
       <c r="V72" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73">
@@ -22991,7 +23590,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74">
@@ -22999,7 +23598,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75">
@@ -23007,7 +23606,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -23015,7 +23614,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -23023,7 +23622,7 @@
         <v>420</v>
       </c>
       <c r="V77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -23031,7 +23630,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -23039,7 +23638,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
@@ -23047,7 +23646,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81">
@@ -23055,7 +23654,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
@@ -23063,7 +23662,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83">
@@ -23071,7 +23670,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -23079,7 +23678,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -23087,7 +23686,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -23095,7 +23694,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -23103,7 +23702,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -23111,7 +23710,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89">
@@ -23119,7 +23718,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90">
@@ -23127,7 +23726,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -23135,7 +23734,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -23143,141 +23742,146 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -19,31 +19,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16622" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17115" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1521,6 +1522,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1553,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="543" x14ac:knownFonts="1">
+  <fonts count="559" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4942,8 +4967,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="948">
+  <fills count="975">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10311,8 +10437,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="982">
+  <borders count="1010">
     <border>
       <left/>
       <right/>
@@ -10334,6 +10613,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20211,7 +20772,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="572">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21838,52 +22399,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="923" borderId="961" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="961" fillId="923" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="926" borderId="965" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="965" fillId="926" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="929" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="929" fontId="530" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="932" borderId="969" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="969" fillId="932" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="935" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="535" fillId="938" borderId="973" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="536" fillId="941" borderId="977" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="537" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="538" fillId="944" borderId="981" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="539" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="540" fillId="947" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="541" fillId="932" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="973" fillId="938" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="977" fillId="941" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="981" fillId="944" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="981" fillId="944" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="932" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="947" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="932" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="950" borderId="989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="953" borderId="993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="956" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="959" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="965" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="968" borderId="1005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="974" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22181,7 +22790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -22228,48 +22837,51 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>387</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>415</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>416</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>350</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>388</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>417</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -22311,48 +22923,51 @@
         <v>421</v>
       </c>
       <c r="M2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
         <v>422</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>423</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>246</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>211</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>389</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>427</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>428</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>374</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>398</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>164</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>169</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>436</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -22379,7 +22994,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>486</v>
       </c>
       <c r="I3" t="s">
         <v>342</v>
@@ -22393,43 +23008,46 @@
       <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>489</v>
+      </c>
+      <c r="O3" t="s">
         <v>424</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>233</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>390</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>429</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>375</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>399</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>165</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>357</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -22452,6 +23070,9 @@
       <c r="G4" t="s">
         <v>457</v>
       </c>
+      <c r="H4" t="s">
+        <v>487</v>
+      </c>
       <c r="I4" t="s">
         <v>343</v>
       </c>
@@ -22464,43 +23085,46 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>234</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>213</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>391</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>430</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>351</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>400</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>347</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>166</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>437</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -22532,40 +23156,40 @@
       <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>235</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>214</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>392</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>431</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>352</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>348</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>167</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>438</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -22594,37 +23218,37 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>236</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>384</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>393</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>354</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>450</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>173</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>439</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -22650,37 +23274,37 @@
       <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>237</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>426</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>394</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>353</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>451</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>174</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>440</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -22706,34 +23330,34 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>238</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>395</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>355</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>168</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>441</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -22759,25 +23383,25 @@
       <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>396</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>356</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>203</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>182</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>484</v>
       </c>
     </row>
@@ -22800,22 +23424,22 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>425</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>240</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>397</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>250</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>183</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>485</v>
       </c>
     </row>
@@ -22838,19 +23462,19 @@
       <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>241</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>251</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>252</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22873,25 +23497,25 @@
       <c r="L12" t="s">
         <v>446</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>34</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>242</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>184</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
         <v>334</v>
@@ -22908,25 +23532,25 @@
       <c r="L13" t="s">
         <v>482</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>86</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>247</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>319</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -22943,22 +23567,22 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>87</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>243</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -22972,22 +23596,22 @@
       <c r="L15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>244</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>378</v>
@@ -23001,19 +23625,19 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>245</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>67</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>379</v>
@@ -23024,16 +23648,16 @@
       <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
         <v>418</v>
@@ -23044,13 +23668,13 @@
       <c r="J18" t="s">
         <v>373</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -23061,13 +23685,13 @@
       <c r="J19" t="s">
         <v>480</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -23078,13 +23702,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -23095,13 +23719,13 @@
       <c r="J21" t="s">
         <v>385</v>
       </c>
-      <c r="V21" t="s">
-        <v>101</v>
+      <c r="W21" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="D22" t="s">
         <v>314</v>
@@ -23112,13 +23736,13 @@
       <c r="J22" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -23129,13 +23753,13 @@
       <c r="J23" t="s">
         <v>445</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>455</v>
@@ -23146,13 +23770,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>218</v>
@@ -23163,13 +23787,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>219</v>
@@ -23177,13 +23801,13 @@
       <c r="F26" t="s">
         <v>275</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="D27" t="s">
         <v>478</v>
@@ -23191,18 +23815,21 @@
       <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" t="s">
         <v>479</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -23213,7 +23840,7 @@
       <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -23224,7 +23851,7 @@
       <c r="F30" t="s">
         <v>210</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -23235,7 +23862,7 @@
       <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -23246,7 +23873,7 @@
       <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -23257,7 +23884,7 @@
       <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -23268,7 +23895,7 @@
       <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>204</v>
       </c>
     </row>
@@ -23279,7 +23906,7 @@
       <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -23290,7 +23917,7 @@
       <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>331</v>
       </c>
     </row>
@@ -23301,7 +23928,7 @@
       <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>432</v>
       </c>
     </row>
@@ -23309,7 +23936,7 @@
       <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>386</v>
       </c>
     </row>
@@ -23317,7 +23944,7 @@
       <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>114</v>
       </c>
     </row>
@@ -23325,7 +23952,7 @@
       <c r="F40" t="s">
         <v>206</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23333,7 +23960,7 @@
       <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -23341,7 +23968,7 @@
       <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23349,7 +23976,7 @@
       <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23357,7 +23984,7 @@
       <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23365,7 +23992,7 @@
       <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>447</v>
       </c>
     </row>
@@ -23373,7 +24000,7 @@
       <c r="F46" t="s">
         <v>205</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>207</v>
       </c>
     </row>
@@ -23381,7 +24008,7 @@
       <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -23389,7 +24016,7 @@
       <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23397,7 +24024,7 @@
       <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23405,7 +24032,7 @@
       <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23413,475 +24040,485 @@
       <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="V51" t="s">
-        <v>473</v>
+      <c r="W51" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
+      <c r="W52" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="V53" t="s">
-        <v>339</v>
+      <c r="W53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="V54" t="s">
-        <v>466</v>
+      <c r="W54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="W55" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="W56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="V57" t="s">
-        <v>126</v>
+      <c r="W57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="V58" t="s">
-        <v>127</v>
+      <c r="W58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="V59" t="s">
-        <v>128</v>
+      <c r="W59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="V60" t="s">
-        <v>129</v>
+      <c r="W60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="V61" t="s">
-        <v>130</v>
+      <c r="W61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="V62" t="s">
-        <v>443</v>
+      <c r="W62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="V63" t="s">
-        <v>483</v>
+      <c r="W63" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="V64" t="s">
-        <v>208</v>
+      <c r="W64" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="V65" t="s">
-        <v>382</v>
+      <c r="W65" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="V66" t="s">
-        <v>448</v>
+      <c r="W66" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="V67" t="s">
-        <v>131</v>
+      <c r="W67" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="V68" t="s">
-        <v>132</v>
+      <c r="W68" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>401</v>
       </c>
-      <c r="V69" t="s">
-        <v>133</v>
+      <c r="W69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="V70" t="s">
-        <v>134</v>
+      <c r="W70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>402</v>
       </c>
-      <c r="V71" t="s">
-        <v>191</v>
+      <c r="W71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="V72" t="s">
-        <v>192</v>
+      <c r="W72" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="V73" t="s">
-        <v>461</v>
+      <c r="W73" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="V74" t="s">
-        <v>477</v>
+      <c r="W74" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="V75" t="s">
-        <v>135</v>
+      <c r="W75" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="V76" t="s">
-        <v>136</v>
+      <c r="W76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>420</v>
       </c>
-      <c r="V77" t="s">
-        <v>137</v>
+      <c r="W77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="V78" t="s">
-        <v>138</v>
+      <c r="W78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="V79" t="s">
-        <v>139</v>
+      <c r="W79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="V80" t="s">
-        <v>193</v>
+      <c r="W80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="V81" t="s">
-        <v>194</v>
+      <c r="W81" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="V82" t="s">
-        <v>460</v>
+      <c r="W82" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="V83" t="s">
-        <v>195</v>
+      <c r="W83" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="V84" t="s">
-        <v>196</v>
+      <c r="W84" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="V85" t="s">
-        <v>209</v>
+      <c r="W85" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="V86" t="s">
-        <v>140</v>
+      <c r="W86" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="V87" t="s">
-        <v>197</v>
+      <c r="W87" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="V88" t="s">
-        <v>434</v>
+      <c r="W88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="V89" t="s">
-        <v>442</v>
+      <c r="W89" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="V90" t="s">
-        <v>198</v>
+      <c r="W90" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="V91" t="s">
-        <v>199</v>
+      <c r="W91" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17115" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17608" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1553,7 +1553,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="559" x14ac:knownFonts="1">
+  <fonts count="575" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5068,8 +5068,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="975">
+  <fills count="1002">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10590,8 +10691,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1010">
+  <borders count="1038">
     <border>
       <left/>
       <right/>
@@ -10613,6 +10867,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20772,7 +21308,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="572">
+  <cellXfs count="588">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22447,52 +22983,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="950" borderId="989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="989" fillId="950" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="953" borderId="993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="993" fillId="953" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="956" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="997" fillId="956" fontId="546" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="959" borderId="997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="997" fillId="959" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="962" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="962" fontId="549" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="551" fillId="965" borderId="1001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="552" fillId="968" borderId="1005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="553" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="971" borderId="1009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="555" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="974" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="959" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1001" fillId="965" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1005" fillId="968" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="971" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1009" fillId="971" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="959" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="974" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="959" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="977" borderId="1017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="980" borderId="1021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="983" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="986" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="992" borderId="1029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="995" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="1001" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,38 +13,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17608" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18611" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1546,6 +1547,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1584,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="575" x14ac:knownFonts="1">
+  <fonts count="607" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5169,8 +5200,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1002">
+  <fills count="1056">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10844,8 +11077,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1038">
+  <borders count="1094">
     <border>
       <left/>
       <right/>
@@ -10867,6 +11406,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -21308,7 +22411,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="620">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23031,52 +24134,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="977" borderId="1017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1017" fillId="977" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="980" borderId="1021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1021" fillId="980" fontId="561" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="983" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1025" fillId="983" fontId="562" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="986" borderId="1025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1025" fillId="986" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="564" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="989" fontId="565" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="992" borderId="1029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="995" borderId="1033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="998" borderId="1037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="1001" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="573" fillId="986" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1029" fillId="992" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1033" fillId="995" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1037" fillId="998" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1037" fillId="998" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="986" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1001" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="986" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1045" fillId="1004" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1049" fillId="1007" fontId="577" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1053" fillId="1010" fontId="578" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1053" fillId="1013" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="580" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1016" fontId="581" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1057" fillId="1019" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1061" fillId="1022" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1065" fillId="1025" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1065" fillId="1025" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1013" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1028" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1013" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1031" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1034" borderId="1077" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1037" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1040" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1043" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1046" borderId="1085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1049" borderId="1089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1055" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23374,7 +24573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -23394,78 +24593,81 @@
         <v>467</v>
       </c>
       <c r="D1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>326</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>248</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>387</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>415</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>416</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>350</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>388</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>417</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -23480,79 +24682,82 @@
         <v>472</v>
       </c>
       <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>456</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>476</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>377</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>421</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>488</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>422</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>423</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>211</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>389</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>427</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>428</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>374</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>398</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>89</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>164</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>436</v>
       </c>
-      <c r="AB2" t="s">
-        <v>221</v>
+      <c r="AC2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="3">
@@ -23566,1543 +24771,1570 @@
         <v>469</v>
       </c>
       <c r="D3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" t="s">
         <v>464</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>358</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>486</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>327</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>489</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>424</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>212</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>390</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>429</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>375</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>399</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>165</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>357</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>177</v>
       </c>
-      <c r="AB3" t="s">
-        <v>222</v>
+      <c r="AC3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
       <c r="D4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>380</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>457</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>487</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>343</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>231</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>328</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>490</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>213</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>391</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>430</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>351</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>400</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>347</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>437</v>
       </c>
-      <c r="AB4" t="s">
-        <v>223</v>
+      <c r="AC4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
       <c r="D5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" t="s">
         <v>465</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>444</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>329</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>462</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>344</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>470</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>235</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>214</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>392</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>431</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>352</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>348</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>167</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>438</v>
       </c>
-      <c r="AB5" t="s">
-        <v>224</v>
+      <c r="AC5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>381</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>454</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>341</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>236</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>384</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>393</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>354</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>450</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>439</v>
       </c>
-      <c r="AB6" t="s">
-        <v>225</v>
+      <c r="AC6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>453</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>426</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>394</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>353</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>92</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>451</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>174</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>440</v>
       </c>
-      <c r="AB7" t="s">
-        <v>226</v>
+      <c r="AC7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>311</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>360</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>321</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>83</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>238</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>395</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>355</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>93</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>168</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>175</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>441</v>
       </c>
-      <c r="AB8" t="s">
-        <v>227</v>
+      <c r="AC8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>299</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>322</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>239</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>396</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>356</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>203</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>182</v>
       </c>
-      <c r="AB9" t="s">
-        <v>484</v>
+      <c r="AC9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
         <v>308</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>345</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>458</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>383</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>425</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>240</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>397</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>250</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>183</v>
       </c>
-      <c r="AB10" t="s">
-        <v>485</v>
+      <c r="AC10" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>249</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>267</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>315</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>481</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>241</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>251</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>252</v>
       </c>
-      <c r="AB11" t="s">
-        <v>228</v>
+      <c r="AC11" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
         <v>312</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>256</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>316</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>446</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>34</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>242</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>94</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>184</v>
       </c>
-      <c r="AB12" t="s">
-        <v>229</v>
+      <c r="AC12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>334</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>309</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>317</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>482</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>86</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>247</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>319</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>185</v>
       </c>
-      <c r="AB13" t="s">
-        <v>230</v>
+      <c r="AC13" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>257</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>87</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>243</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>186</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>258</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>463</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>88</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>244</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>187</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>378</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>310</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>75</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>245</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>188</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
         <v>379</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>76</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>97</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>471</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>418</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>373</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>98</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>289</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>480</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>290</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>291</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>385</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>388</v>
-      </c>
-      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" t="s">
         <v>314</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>292</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>77</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>283</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>445</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>455</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>272</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>218</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>68</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
         <v>219</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>275</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>478</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>259</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" t="s">
+        <v>479</v>
+      </c>
+      <c r="G28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>220</v>
       </c>
-      <c r="D28" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" t="s">
-        <v>276</v>
-      </c>
-      <c r="W28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>419</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>253</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>323</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>300</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>254</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>63</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>301</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>260</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>70</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>206</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>282</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>293</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>294</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>336</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>335</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>205</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>313</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>332</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>361</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>295</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>349</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>324</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>261</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>285</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>286</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>287</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>330</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>303</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>362</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>363</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>338</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>306</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>262</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>307</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>401</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>297</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>402</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>255</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>337</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>273</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>279</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>284</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>420</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>263</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>274</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>280</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>269</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>264</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>281</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>265</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>266</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>298</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>304</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>333</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>270</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>271</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,11 +35,11 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
     <definedName name="sound">'#system'!$U$2:$U$5</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18611" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19119" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1577,6 +1577,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1596,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="607" x14ac:knownFonts="1">
+  <fonts count="623" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5402,8 +5414,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1056">
+  <fills count="1083">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11383,8 +11496,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1094">
+  <borders count="1122">
     <border>
       <left/>
       <right/>
@@ -11406,6 +11672,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22411,7 +22959,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="620">
+  <cellXfs count="636">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24230,52 +24778,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1031" borderId="1073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1073" fillId="1031" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="592" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1034" borderId="1077" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1077" fillId="1034" fontId="593" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1037" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1081" fillId="1037" fontId="594" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1040" borderId="1081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1081" fillId="1040" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="596" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1043" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1043" fontId="597" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="1046" borderId="1085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="1049" borderId="1089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="1052" borderId="1093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1055" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1040" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1085" fillId="1046" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1089" fillId="1049" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1093" fillId="1052" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1093" fillId="1052" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1040" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1055" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1040" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1058" borderId="1101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1061" borderId="1105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1064" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1067" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1070" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1073" borderId="1113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1076" borderId="1117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1082" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24573,7 +25169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -25343,7 +25939,7 @@
         <v>185</v>
       </c>
       <c r="AC13" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14">
@@ -25378,7 +25974,7 @@
         <v>186</v>
       </c>
       <c r="AC14" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15">
@@ -25410,7 +26006,7 @@
         <v>187</v>
       </c>
       <c r="AC15" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16">
@@ -25439,7 +26035,7 @@
         <v>188</v>
       </c>
       <c r="AC16" t="s">
-        <v>228</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
@@ -25462,7 +26058,7 @@
         <v>471</v>
       </c>
       <c r="AC17" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18">
@@ -25482,7 +26078,7 @@
         <v>98</v>
       </c>
       <c r="AC18" t="s">
-        <v>230</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19">
@@ -25501,6 +26097,9 @@
       <c r="X19" t="s">
         <v>99</v>
       </c>
+      <c r="AC19" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -25518,6 +26117,9 @@
       <c r="X20" t="s">
         <v>100</v>
       </c>
+      <c r="AC20" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -25535,6 +26137,9 @@
       <c r="X21" t="s">
         <v>491</v>
       </c>
+      <c r="AC21" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -26081,7 +26686,7 @@
         <v>263</v>
       </c>
       <c r="X79" t="s">
-        <v>138</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80">
@@ -26089,7 +26694,7 @@
         <v>274</v>
       </c>
       <c r="X80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -26097,7 +26702,7 @@
         <v>280</v>
       </c>
       <c r="X81" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -26105,7 +26710,7 @@
         <v>269</v>
       </c>
       <c r="X82" t="s">
-        <v>493</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83">
@@ -26113,7 +26718,7 @@
         <v>264</v>
       </c>
       <c r="X83" t="s">
-        <v>194</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84">
@@ -26121,7 +26726,7 @@
         <v>281</v>
       </c>
       <c r="X84" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
@@ -26129,7 +26734,7 @@
         <v>265</v>
       </c>
       <c r="X85" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86">
@@ -26137,7 +26742,7 @@
         <v>266</v>
       </c>
       <c r="X86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
@@ -26145,7 +26750,7 @@
         <v>298</v>
       </c>
       <c r="X87" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -26153,7 +26758,7 @@
         <v>304</v>
       </c>
       <c r="X88" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -26161,7 +26766,7 @@
         <v>288</v>
       </c>
       <c r="X89" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
@@ -26169,7 +26774,7 @@
         <v>333</v>
       </c>
       <c r="X90" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -26177,7 +26782,7 @@
         <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92">
@@ -26185,156 +26790,161 @@
         <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -28,14 +28,14 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19119" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20138" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1589,6 +1589,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="623" x14ac:knownFonts="1">
+  <fonts count="655" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5515,8 +5524,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1083">
+  <fills count="1137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11649,8 +11860,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1122">
+  <borders count="1178">
     <border>
       <left/>
       <right/>
@@ -11672,6 +12189,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22959,7 +24040,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="668">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24826,52 +25907,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1058" borderId="1101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1101" fillId="1058" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="608" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1061" borderId="1105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1105" fillId="1061" fontId="609" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1064" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1109" fillId="1064" fontId="610" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="1067" borderId="1109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1109" fillId="1067" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="612" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1070" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1070" fontId="613" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="1073" borderId="1113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="1076" borderId="1117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="1079" borderId="1121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1082" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="1067" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1113" fillId="1073" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1117" fillId="1076" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1121" fillId="1079" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1121" fillId="1079" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1067" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1082" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1067" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1129" fillId="1085" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1133" fillId="1088" fontId="625" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1137" fillId="1091" fontId="626" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1137" fillId="1094" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="628" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1097" fontId="629" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1141" fillId="1100" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1145" fillId="1103" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1149" fillId="1106" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1149" fillId="1106" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1094" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1109" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1094" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1112" borderId="1157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1115" borderId="1161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1118" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1121" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1127" borderId="1169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1130" borderId="1173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25169,7 +26346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -25994,7 +27171,7 @@
         <v>33</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="Q15" t="s">
         <v>244</v>
@@ -26025,6 +27202,9 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
+      <c r="P16" t="s">
+        <v>509</v>
+      </c>
       <c r="Q16" t="s">
         <v>245</v>
       </c>
@@ -26052,7 +27232,7 @@
         <v>76</v>
       </c>
       <c r="X17" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="AA17" t="s">
         <v>471</v>
@@ -26075,7 +27255,7 @@
         <v>373</v>
       </c>
       <c r="X18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC18" t="s">
         <v>507</v>
@@ -26095,7 +27275,7 @@
         <v>480</v>
       </c>
       <c r="X19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="s">
         <v>228</v>
@@ -26115,7 +27295,7 @@
         <v>37</v>
       </c>
       <c r="X20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC20" t="s">
         <v>229</v>
@@ -26135,7 +27315,7 @@
         <v>385</v>
       </c>
       <c r="X21" t="s">
-        <v>491</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="s">
         <v>230</v>
@@ -26155,7 +27335,7 @@
         <v>77</v>
       </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23">
@@ -26172,7 +27352,7 @@
         <v>445</v>
       </c>
       <c r="X23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -26189,7 +27369,7 @@
         <v>38</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -26206,7 +27386,7 @@
         <v>39</v>
       </c>
       <c r="X25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -26220,7 +27400,7 @@
         <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -26234,7 +27414,7 @@
         <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -26248,7 +27428,7 @@
         <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29">
@@ -26262,7 +27442,7 @@
         <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -26273,7 +27453,7 @@
         <v>210</v>
       </c>
       <c r="X30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -26284,7 +27464,7 @@
         <v>268</v>
       </c>
       <c r="X31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -26295,7 +27475,7 @@
         <v>278</v>
       </c>
       <c r="X32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -26306,7 +27486,7 @@
         <v>253</v>
       </c>
       <c r="X33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -26317,7 +27497,7 @@
         <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -26328,7 +27508,7 @@
         <v>300</v>
       </c>
       <c r="X35" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36">
@@ -26339,7 +27519,7 @@
         <v>254</v>
       </c>
       <c r="X36" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -26350,7 +27530,7 @@
         <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -26358,7 +27538,7 @@
         <v>260</v>
       </c>
       <c r="X38" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39">
@@ -26366,7 +27546,7 @@
         <v>70</v>
       </c>
       <c r="X39" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40">
@@ -26374,7 +27554,7 @@
         <v>206</v>
       </c>
       <c r="X40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -26382,7 +27562,7 @@
         <v>282</v>
       </c>
       <c r="X41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -26390,7 +27570,7 @@
         <v>293</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -26398,7 +27578,7 @@
         <v>294</v>
       </c>
       <c r="X43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -26406,7 +27586,7 @@
         <v>336</v>
       </c>
       <c r="X44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -26414,7 +27594,7 @@
         <v>335</v>
       </c>
       <c r="X45" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -26422,7 +27602,7 @@
         <v>205</v>
       </c>
       <c r="X46" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47">
@@ -26430,7 +27610,7 @@
         <v>313</v>
       </c>
       <c r="X47" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48">
@@ -26438,7 +27618,7 @@
         <v>332</v>
       </c>
       <c r="X48" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -26446,7 +27626,7 @@
         <v>361</v>
       </c>
       <c r="X49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -26454,7 +27634,7 @@
         <v>295</v>
       </c>
       <c r="X50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -26462,7 +27642,7 @@
         <v>349</v>
       </c>
       <c r="X51" t="s">
-        <v>492</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -26470,7 +27650,7 @@
         <v>324</v>
       </c>
       <c r="X52" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53">
@@ -26478,7 +27658,7 @@
         <v>261</v>
       </c>
       <c r="X53" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54">
@@ -26486,7 +27666,7 @@
         <v>285</v>
       </c>
       <c r="X54" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -26494,7 +27674,7 @@
         <v>286</v>
       </c>
       <c r="X55" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56">
@@ -26502,7 +27682,7 @@
         <v>287</v>
       </c>
       <c r="X56" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57">
@@ -26510,7 +27690,7 @@
         <v>296</v>
       </c>
       <c r="X57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
@@ -26518,7 +27698,7 @@
         <v>305</v>
       </c>
       <c r="X58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -26526,7 +27706,7 @@
         <v>330</v>
       </c>
       <c r="X59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
@@ -26534,7 +27714,7 @@
         <v>302</v>
       </c>
       <c r="X60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -26542,7 +27722,7 @@
         <v>303</v>
       </c>
       <c r="X61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -26550,7 +27730,7 @@
         <v>362</v>
       </c>
       <c r="X62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -26558,7 +27738,7 @@
         <v>363</v>
       </c>
       <c r="X63" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -26566,7 +27746,7 @@
         <v>338</v>
       </c>
       <c r="X64" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65">
@@ -26574,7 +27754,7 @@
         <v>306</v>
       </c>
       <c r="X65" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66">
@@ -26582,7 +27762,7 @@
         <v>262</v>
       </c>
       <c r="X66" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67">
@@ -26590,7 +27770,7 @@
         <v>346</v>
       </c>
       <c r="X67" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68">
@@ -26598,7 +27778,7 @@
         <v>307</v>
       </c>
       <c r="X68" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
@@ -26606,7 +27786,7 @@
         <v>401</v>
       </c>
       <c r="X69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
@@ -26614,7 +27794,7 @@
         <v>297</v>
       </c>
       <c r="X70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
@@ -26622,7 +27802,7 @@
         <v>402</v>
       </c>
       <c r="X71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
@@ -26630,7 +27810,7 @@
         <v>255</v>
       </c>
       <c r="X72" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73">
@@ -26638,7 +27818,7 @@
         <v>337</v>
       </c>
       <c r="X73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74">
@@ -26646,7 +27826,7 @@
         <v>273</v>
       </c>
       <c r="X74" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
@@ -26654,7 +27834,7 @@
         <v>279</v>
       </c>
       <c r="X75" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76">
@@ -26662,7 +27842,7 @@
         <v>284</v>
       </c>
       <c r="X76" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77">
@@ -26670,7 +27850,7 @@
         <v>420</v>
       </c>
       <c r="X77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
@@ -26678,7 +27858,7 @@
         <v>325</v>
       </c>
       <c r="X78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
@@ -26686,7 +27866,7 @@
         <v>263</v>
       </c>
       <c r="X79" t="s">
-        <v>504</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
@@ -26694,7 +27874,7 @@
         <v>274</v>
       </c>
       <c r="X80" t="s">
-        <v>138</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81">
@@ -26702,7 +27882,7 @@
         <v>280</v>
       </c>
       <c r="X81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -26710,7 +27890,7 @@
         <v>269</v>
       </c>
       <c r="X82" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -26718,7 +27898,7 @@
         <v>264</v>
       </c>
       <c r="X83" t="s">
-        <v>493</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84">
@@ -26726,7 +27906,7 @@
         <v>281</v>
       </c>
       <c r="X84" t="s">
-        <v>194</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85">
@@ -26734,7 +27914,7 @@
         <v>265</v>
       </c>
       <c r="X85" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
@@ -26742,7 +27922,7 @@
         <v>266</v>
       </c>
       <c r="X86" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87">
@@ -26750,7 +27930,7 @@
         <v>298</v>
       </c>
       <c r="X87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -26758,7 +27938,7 @@
         <v>304</v>
       </c>
       <c r="X88" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
@@ -26766,7 +27946,7 @@
         <v>288</v>
       </c>
       <c r="X89" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -26774,7 +27954,7 @@
         <v>333</v>
       </c>
       <c r="X90" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
@@ -26782,7 +27962,7 @@
         <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -26790,161 +27970,166 @@
         <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20138" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20653" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1598,6 +1598,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="655" x14ac:knownFonts="1">
+  <fonts count="671" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5726,8 +5741,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1137">
+  <fills count="1164">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12166,8 +12282,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1178">
+  <borders count="1206">
     <border>
       <left/>
       <right/>
@@ -12189,6 +12458,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24040,7 +24591,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="668">
+  <cellXfs count="684">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26003,52 +26554,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1112" borderId="1157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1157" fillId="1112" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1115" borderId="1161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1161" fillId="1115" fontId="641" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1118" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1165" fillId="1118" fontId="642" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1121" borderId="1165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1165" fillId="1121" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="644" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1124" fontId="645" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="1127" borderId="1169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="1130" borderId="1173" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="649" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="1133" borderId="1177" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="651" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1136" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="1121" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1169" fillId="1127" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1173" fillId="1130" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1177" fillId="1133" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1177" fillId="1133" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1121" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1136" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1121" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1139" borderId="1185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1142" borderId="1189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1145" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1148" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1154" borderId="1197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1157" borderId="1201" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26346,7 +26945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -26774,6 +27373,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>511</v>
+      </c>
       <c r="G6" t="s">
         <v>381</v>
       </c>
@@ -26896,7 +27498,7 @@
         <v>321</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>512</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
@@ -26949,7 +27551,7 @@
         <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
@@ -26990,7 +27592,7 @@
         <v>458</v>
       </c>
       <c r="K10" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -27028,7 +27630,7 @@
         <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>513</v>
       </c>
       <c r="M11" t="s">
         <v>481</v>
@@ -27063,7 +27665,7 @@
         <v>316</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="M12" t="s">
         <v>446</v>
@@ -27098,7 +27700,7 @@
         <v>317</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
         <v>482</v>
@@ -27133,7 +27735,7 @@
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>32</v>
@@ -27165,7 +27767,7 @@
         <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="M15" t="s">
         <v>33</v>
@@ -27197,7 +27799,7 @@
         <v>310</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -27229,7 +27831,7 @@
         <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s">
         <v>510</v>
@@ -27252,7 +27854,7 @@
         <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="X18" t="s">
         <v>97</v>
@@ -27272,7 +27874,7 @@
         <v>289</v>
       </c>
       <c r="K19" t="s">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
         <v>98</v>
@@ -27292,7 +27894,7 @@
         <v>290</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s">
         <v>99</v>
@@ -27312,7 +27914,7 @@
         <v>291</v>
       </c>
       <c r="K21" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="X21" t="s">
         <v>100</v>
@@ -27332,7 +27934,7 @@
         <v>292</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="X22" t="s">
         <v>491</v>
@@ -27349,7 +27951,7 @@
         <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
         <v>102</v>
@@ -27366,7 +27968,7 @@
         <v>272</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>385</v>
       </c>
       <c r="X24" t="s">
         <v>103</v>
@@ -27383,7 +27985,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s">
         <v>104</v>
@@ -27399,6 +28001,9 @@
       <c r="G26" t="s">
         <v>275</v>
       </c>
+      <c r="K26" t="s">
+        <v>445</v>
+      </c>
       <c r="X26" t="s">
         <v>105</v>
       </c>
@@ -27413,6 +28018,9 @@
       <c r="G27" t="s">
         <v>259</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
       <c r="X27" t="s">
         <v>106</v>
       </c>
@@ -27427,6 +28035,9 @@
       <c r="G28" t="s">
         <v>276</v>
       </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" t="s">
         <v>320</v>
       </c>
@@ -28010,126 +28621,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>142</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -17,7 +17,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20653" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21170" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1613,6 +1613,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1626,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="671" x14ac:knownFonts="1">
+  <fonts count="687" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5842,8 +5848,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1164">
+  <fills count="1191">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12435,8 +12542,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1206">
+  <borders count="1234">
     <border>
       <left/>
       <right/>
@@ -12458,6 +12718,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24591,7 +25133,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="684">
+  <cellXfs count="700">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26602,52 +27144,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1139" borderId="1185" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1185" fillId="1139" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1142" borderId="1189" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1189" fillId="1142" fontId="657" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1145" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1193" fillId="1145" fontId="658" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1148" borderId="1193" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1193" fillId="1148" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="660" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="1151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1151" fontId="661" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="1154" borderId="1197" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="1157" borderId="1201" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="1160" borderId="1205" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1163" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="1148" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1197" fillId="1154" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1201" fillId="1157" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1205" fillId="1160" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1205" fillId="1160" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1148" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1163" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1148" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1166" borderId="1213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1169" borderId="1217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1172" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1175" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1181" borderId="1225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1184" borderId="1229" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28094,7 +28684,7 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>516</v>
       </c>
       <c r="X33" t="s">
         <v>111</v>
@@ -28105,7 +28695,7 @@
         <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="X34" t="s">
         <v>112</v>
@@ -28116,7 +28706,7 @@
         <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="X35" t="s">
         <v>204</v>
@@ -28127,7 +28717,7 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="X36" t="s">
         <v>113</v>
@@ -28138,7 +28728,7 @@
         <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="X37" t="s">
         <v>331</v>
@@ -28146,7 +28736,7 @@
     </row>
     <row r="38">
       <c r="G38" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="X38" t="s">
         <v>432</v>
@@ -28154,7 +28744,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="X39" t="s">
         <v>386</v>
@@ -28162,7 +28752,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="X40" t="s">
         <v>114</v>
@@ -28170,7 +28760,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="X41" t="s">
         <v>115</v>
@@ -28178,7 +28768,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X42" t="s">
         <v>116</v>
@@ -28186,7 +28776,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X43" t="s">
         <v>117</v>
@@ -28194,7 +28784,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="X44" t="s">
         <v>118</v>
@@ -28202,7 +28792,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X45" t="s">
         <v>119</v>
@@ -28210,7 +28800,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="X46" t="s">
         <v>447</v>
@@ -28218,7 +28808,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="X47" t="s">
         <v>207</v>
@@ -28226,7 +28816,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="X48" t="s">
         <v>69</v>
@@ -28234,7 +28824,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="X49" t="s">
         <v>120</v>
@@ -28242,7 +28832,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="X50" t="s">
         <v>121</v>
@@ -28250,7 +28840,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s">
         <v>122</v>
@@ -28258,7 +28848,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="X52" t="s">
         <v>492</v>
@@ -28266,7 +28856,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="X53" t="s">
         <v>473</v>
@@ -28274,7 +28864,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="X54" t="s">
         <v>123</v>
@@ -28282,7 +28872,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X55" t="s">
         <v>339</v>
@@ -28290,7 +28880,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X56" t="s">
         <v>466</v>
@@ -28298,7 +28888,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s">
         <v>124</v>
@@ -28306,7 +28896,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="X58" t="s">
         <v>125</v>
@@ -28314,7 +28904,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="X59" t="s">
         <v>126</v>
@@ -28322,7 +28912,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="X60" t="s">
         <v>127</v>
@@ -28330,7 +28920,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s">
         <v>128</v>
@@ -28338,7 +28928,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="X62" t="s">
         <v>129</v>
@@ -28346,7 +28936,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X63" t="s">
         <v>130</v>
@@ -28354,7 +28944,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="X64" t="s">
         <v>443</v>
@@ -28362,7 +28952,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="X65" t="s">
         <v>483</v>
@@ -28370,7 +28960,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="X66" t="s">
         <v>208</v>
@@ -28378,7 +28968,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="X67" t="s">
         <v>382</v>
@@ -28386,7 +28976,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="X68" t="s">
         <v>448</v>
@@ -28394,7 +28984,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="X69" t="s">
         <v>131</v>
@@ -28402,7 +28992,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="X70" t="s">
         <v>132</v>
@@ -28410,7 +29000,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="X71" t="s">
         <v>133</v>
@@ -28418,7 +29008,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="X72" t="s">
         <v>134</v>
@@ -28426,7 +29016,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="X73" t="s">
         <v>191</v>
@@ -28434,7 +29024,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>273</v>
+        <v>517</v>
       </c>
       <c r="X74" t="s">
         <v>192</v>
@@ -28442,7 +29032,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="X75" t="s">
         <v>461</v>
@@ -28450,7 +29040,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="X76" t="s">
         <v>477</v>
@@ -28458,7 +29048,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="X77" t="s">
         <v>135</v>
@@ -28466,7 +29056,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="X78" t="s">
         <v>136</v>
@@ -28474,7 +29064,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>263</v>
+        <v>420</v>
       </c>
       <c r="X79" t="s">
         <v>137</v>
@@ -28482,7 +29072,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="X80" t="s">
         <v>504</v>
@@ -28490,7 +29080,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="X81" t="s">
         <v>138</v>
@@ -28498,7 +29088,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="X82" t="s">
         <v>139</v>
@@ -28506,7 +29096,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="X83" t="s">
         <v>193</v>
@@ -28514,7 +29104,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="X84" t="s">
         <v>493</v>
@@ -28522,7 +29112,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X85" t="s">
         <v>194</v>
@@ -28530,7 +29120,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="X86" t="s">
         <v>460</v>
@@ -28538,7 +29128,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="X87" t="s">
         <v>195</v>
@@ -28546,7 +29136,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="X88" t="s">
         <v>196</v>
@@ -28554,7 +29144,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="X89" t="s">
         <v>209</v>
@@ -28562,7 +29152,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="X90" t="s">
         <v>140</v>
@@ -28570,7 +29160,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="X91" t="s">
         <v>197</v>
@@ -28578,18 +29168,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="X92" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
       <c r="X93" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>271</v>
+      </c>
       <c r="X94" t="s">
         <v>198</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21170" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21689" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1619,6 +1619,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="687" x14ac:knownFonts="1">
+  <fonts count="703" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5949,8 +5955,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1191">
+  <fills count="1221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12695,8 +12802,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1234">
+  <borders count="1262">
     <border>
       <left/>
       <right/>
@@ -12718,6 +12995,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25133,7 +25692,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="700">
+  <cellXfs count="716">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27192,52 +27751,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1166" borderId="1213" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1213" fillId="1166" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="672" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1169" borderId="1217" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1217" fillId="1169" fontId="673" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1172" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1221" fillId="1172" fontId="674" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1175" borderId="1221" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1221" fillId="1175" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="676" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1178" fontId="677" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="1181" borderId="1225" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="1184" borderId="1229" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="681" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="1187" borderId="1233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1190" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1175" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1225" fillId="1181" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1229" fillId="1184" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1233" fillId="1187" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1233" fillId="1187" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1175" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1190" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1175" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1193" borderId="1241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1196" borderId="1245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1199" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1202" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1208" borderId="1253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1211" borderId="1257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1220" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27535,7 +28142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -29222,126 +29829,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>143</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>449</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>157</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -24,28 +24,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21689" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22216" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1625,6 +1626,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="703" x14ac:knownFonts="1">
+  <fonts count="719" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6056,8 +6078,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1221">
+  <fills count="1251">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12972,8 +13095,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1262">
+  <borders count="1290">
     <border>
       <left/>
       <right/>
@@ -12995,6 +13288,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25692,7 +26267,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="716">
+  <cellXfs count="732">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27799,52 +28374,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1193" borderId="1241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1241" fillId="1193" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1196" borderId="1245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1245" fillId="1196" fontId="689" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1199" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1249" fillId="1199" fontId="690" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1202" borderId="1249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1249" fillId="1202" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="692" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1205" fontId="693" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="695" fillId="1208" borderId="1253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="696" fillId="1211" borderId="1257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="697" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="1214" borderId="1261" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="699" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1217" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1202" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1253" fillId="1208" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1257" fillId="1211" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1261" fillId="1214" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1261" fillId="1214" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1202" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1217" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1202" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1220" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1223" borderId="1269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1226" borderId="1273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1229" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1232" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="1235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1238" borderId="1281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1241" borderId="1285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1250" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28142,7 +28765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -28192,51 +28815,54 @@
         <v>17</v>
       </c>
       <c r="N1" t="s">
+        <v>520</v>
+      </c>
+      <c r="O1" t="s">
         <v>248</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>232</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>387</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>415</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>416</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>388</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>417</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -28281,51 +28907,54 @@
         <v>421</v>
       </c>
       <c r="N2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" t="s">
         <v>488</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>422</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>423</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>246</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>211</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>389</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>427</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>428</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>374</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>398</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>436</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -28370,45 +28999,48 @@
         <v>78</v>
       </c>
       <c r="N3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O3" t="s">
         <v>489</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>424</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>233</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>212</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>390</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>429</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>375</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>399</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>165</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>357</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -28450,45 +29082,48 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>523</v>
+      </c>
+      <c r="O4" t="s">
         <v>490</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>234</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>213</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>391</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>430</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>351</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>400</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>347</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>166</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>437</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -28523,40 +29158,43 @@
       <c r="M5" t="s">
         <v>79</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q5" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>235</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>214</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>392</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>431</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>348</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>438</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -28588,37 +29226,40 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>236</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>384</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>393</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>450</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>173</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>439</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -28644,37 +29285,40 @@
       <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>237</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>426</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>394</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>451</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>174</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>440</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -28700,34 +29344,34 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>238</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>395</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>168</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>175</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>441</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -28753,25 +29397,25 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>84</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>239</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>396</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>203</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -28794,22 +29438,22 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>425</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>240</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>397</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>484</v>
       </c>
     </row>
@@ -28832,19 +29476,19 @@
       <c r="M11" t="s">
         <v>481</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>500</v>
       </c>
     </row>
@@ -28867,19 +29511,19 @@
       <c r="M12" t="s">
         <v>446</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>501</v>
       </c>
     </row>
@@ -28902,25 +29546,25 @@
       <c r="M13" t="s">
         <v>482</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -28937,25 +29581,25 @@
       <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
@@ -28969,25 +29613,25 @@
       <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>508</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
         <v>378</v>
@@ -29001,25 +29645,25 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>509</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>67</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
         <v>379</v>
@@ -29030,19 +29674,19 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>510</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>471</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
         <v>418</v>
@@ -29053,16 +29697,16 @@
       <c r="K18" t="s">
         <v>463</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -29073,16 +29717,16 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -29093,16 +29737,16 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -29113,16 +29757,16 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="E22" t="s">
         <v>314</v>
@@ -29133,13 +29777,13 @@
       <c r="K22" t="s">
         <v>480</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
@@ -29150,13 +29794,13 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="E24" t="s">
         <v>455</v>
@@ -29167,13 +29811,13 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>218</v>
@@ -29184,13 +29828,13 @@
       <c r="K25" t="s">
         <v>77</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>219</v>
@@ -29201,13 +29845,13 @@
       <c r="K26" t="s">
         <v>445</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>478</v>
@@ -29218,13 +29862,13 @@
       <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>479</v>
@@ -29235,13 +29879,13 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="E29" t="s">
         <v>419</v>
@@ -29249,18 +29893,21 @@
       <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
       <c r="E30" t="s">
         <v>56</v>
       </c>
       <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -29271,7 +29918,7 @@
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -29282,7 +29929,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -29293,7 +29940,7 @@
       <c r="G33" t="s">
         <v>516</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -29304,7 +29951,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -29315,7 +29962,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>204</v>
       </c>
     </row>
@@ -29326,7 +29973,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -29337,7 +29984,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -29345,7 +29992,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>432</v>
       </c>
     </row>
@@ -29353,7 +30000,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>386</v>
       </c>
     </row>
@@ -29361,7 +30008,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>114</v>
       </c>
     </row>
@@ -29369,7 +30016,7 @@
       <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -29377,7 +30024,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -29385,7 +30032,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -29393,7 +30040,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -29401,7 +30048,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -29409,7 +30056,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>447</v>
       </c>
     </row>
@@ -29417,7 +30064,7 @@
       <c r="G47" t="s">
         <v>205</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>207</v>
       </c>
     </row>
@@ -29425,7 +30072,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -29433,7 +30080,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>120</v>
       </c>
     </row>
@@ -29441,7 +30088,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>121</v>
       </c>
     </row>
@@ -29449,7 +30096,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>122</v>
       </c>
     </row>
@@ -29457,7 +30104,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>492</v>
       </c>
     </row>
@@ -29465,7 +30112,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>473</v>
       </c>
     </row>
@@ -29473,7 +30120,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>123</v>
       </c>
     </row>
@@ -29481,7 +30128,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>339</v>
       </c>
     </row>
@@ -29489,7 +30136,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>466</v>
       </c>
     </row>
@@ -29497,7 +30144,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>124</v>
       </c>
     </row>
@@ -29505,7 +30152,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>125</v>
       </c>
     </row>
@@ -29513,7 +30160,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29521,7 +30168,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -29529,7 +30176,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>128</v>
       </c>
     </row>
@@ -29537,7 +30184,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -29545,7 +30192,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -29553,7 +30200,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>443</v>
       </c>
     </row>
@@ -29561,7 +30208,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>483</v>
       </c>
     </row>
@@ -29569,7 +30216,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>208</v>
       </c>
     </row>
@@ -29577,7 +30224,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>382</v>
       </c>
     </row>
@@ -29585,7 +30232,7 @@
       <c r="G68" t="s">
         <v>346</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>448</v>
       </c>
     </row>
@@ -29593,7 +30240,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>131</v>
       </c>
     </row>
@@ -29601,7 +30248,7 @@
       <c r="G70" t="s">
         <v>401</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>132</v>
       </c>
     </row>
@@ -29609,7 +30256,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>133</v>
       </c>
     </row>
@@ -29617,7 +30264,7 @@
       <c r="G72" t="s">
         <v>402</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>134</v>
       </c>
     </row>
@@ -29625,7 +30272,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>191</v>
       </c>
     </row>
@@ -29633,7 +30280,7 @@
       <c r="G74" t="s">
         <v>517</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>192</v>
       </c>
     </row>
@@ -29641,7 +30288,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>461</v>
       </c>
     </row>
@@ -29649,7 +30296,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>477</v>
       </c>
     </row>
@@ -29657,7 +30304,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>135</v>
       </c>
     </row>
@@ -29665,7 +30312,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>136</v>
       </c>
     </row>
@@ -29673,7 +30320,7 @@
       <c r="G79" t="s">
         <v>420</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>137</v>
       </c>
     </row>
@@ -29681,7 +30328,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>504</v>
       </c>
     </row>
@@ -29689,7 +30336,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>138</v>
       </c>
     </row>
@@ -29697,7 +30344,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -29705,7 +30352,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>193</v>
       </c>
     </row>
@@ -29713,7 +30360,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>493</v>
       </c>
     </row>
@@ -29721,7 +30368,7 @@
       <c r="G85" t="s">
         <v>264</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>194</v>
       </c>
     </row>
@@ -29729,7 +30376,7 @@
       <c r="G86" t="s">
         <v>281</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>460</v>
       </c>
     </row>
@@ -29737,7 +30384,7 @@
       <c r="G87" t="s">
         <v>265</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>195</v>
       </c>
     </row>
@@ -29745,7 +30392,7 @@
       <c r="G88" t="s">
         <v>266</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>196</v>
       </c>
     </row>
@@ -29753,7 +30400,7 @@
       <c r="G89" t="s">
         <v>298</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>209</v>
       </c>
     </row>
@@ -29761,7 +30408,7 @@
       <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>140</v>
       </c>
     </row>
@@ -29769,7 +30416,7 @@
       <c r="G91" t="s">
         <v>288</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>197</v>
       </c>
     </row>
@@ -29777,7 +30424,7 @@
       <c r="G92" t="s">
         <v>333</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>434</v>
       </c>
     </row>
@@ -29785,7 +30432,7 @@
       <c r="G93" t="s">
         <v>270</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>442</v>
       </c>
     </row>
@@ -29793,172 +30440,172 @@
       <c r="G94" t="s">
         <v>271</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -21,7 +21,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,7 +46,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22216" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23277" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1647,6 +1647,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="719" x14ac:knownFonts="1">
+  <fonts count="751" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6179,8 +6191,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1251">
+  <fills count="1311">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13265,8 +13479,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1290">
+  <borders count="1346">
     <border>
       <left/>
       <right/>
@@ -13288,6 +13842,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26267,7 +27385,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="732">
+  <cellXfs count="764">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28422,52 +29540,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1220" fontId="702" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1223" borderId="1269" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1269" fillId="1223" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="704" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1226" borderId="1273" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1273" fillId="1226" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1229" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1277" fillId="1229" fontId="706" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="1232" borderId="1277" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1277" fillId="1232" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="708" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="1235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1235" fontId="709" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="1238" borderId="1281" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="1241" borderId="1285" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="1244" borderId="1289" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="1247" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="717" fillId="1232" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="718" fillId="1250" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1281" fillId="1238" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1285" fillId="1241" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1289" fillId="1244" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1289" fillId="1244" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1232" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1247" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1232" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1250" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1297" fillId="1253" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1301" fillId="1256" fontId="721" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1305" fillId="1259" fontId="722" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1305" fillId="1262" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="724" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1265" fontId="725" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1309" fillId="1268" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1313" fillId="1271" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1317" fillId="1274" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1317" fillId="1274" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1262" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1277" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1262" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1280" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1283" borderId="1325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1286" borderId="1329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1289" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1292" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1295" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1298" borderId="1337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1301" borderId="1341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1307" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1310" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29159,7 +30373,7 @@
         <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -29227,7 +30441,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -29286,7 +30500,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
@@ -29344,6 +30558,9 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
+      <c r="N8" t="s">
+        <v>524</v>
+      </c>
       <c r="Q8" t="s">
         <v>83</v>
       </c>
@@ -29397,6 +30614,9 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
+      <c r="N9" t="s">
+        <v>525</v>
+      </c>
       <c r="Q9" t="s">
         <v>84</v>
       </c>
@@ -29438,6 +30658,9 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
+      <c r="N10" t="s">
+        <v>526</v>
+      </c>
       <c r="Q10" t="s">
         <v>425</v>
       </c>
@@ -29826,7 +31049,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>
@@ -29843,7 +31066,7 @@
         <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s">
         <v>105</v>
@@ -29860,7 +31083,7 @@
         <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="Y27" t="s">
         <v>106</v>
@@ -29877,7 +31100,7 @@
         <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>320</v>
@@ -29892,6 +31115,9 @@
       </c>
       <c r="G29" t="s">
         <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="Y29" t="s">
         <v>107</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -45,8 +45,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23277" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23811" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1659,6 +1659,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="751" x14ac:knownFonts="1">
+  <fonts count="767" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6393,8 +6405,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1311">
+  <fills count="1341">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13819,8 +13932,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1346">
+  <borders count="1374">
     <border>
       <left/>
       <right/>
@@ -13842,6 +14125,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27385,7 +27950,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="764">
+  <cellXfs count="780">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29636,52 +30201,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1280" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1283" borderId="1325" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1325" fillId="1283" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1286" borderId="1329" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1329" fillId="1286" fontId="737" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1289" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1333" fillId="1289" fontId="738" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1292" borderId="1333" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1333" fillId="1292" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="740" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1295" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1295" fontId="741" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="743" fillId="1298" borderId="1337" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="744" fillId="1301" borderId="1341" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="745" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="1304" borderId="1345" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="747" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="1307" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="1292" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="1310" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1337" fillId="1298" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1341" fillId="1301" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1345" fillId="1304" fontId="745" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1345" fillId="1304" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1292" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1307" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1292" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1310" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1313" borderId="1353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1316" borderId="1357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1319" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1322" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="1325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1328" borderId="1365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="1331" borderId="1369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1337" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1340" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30183,7 +30796,7 @@
         <v>469</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="E3" t="s">
         <v>464</v>
@@ -30266,7 +30879,7 @@
         <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -30349,7 +30962,7 @@
         <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5" t="s">
         <v>465</v>
@@ -30373,7 +30986,7 @@
         <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -30419,6 +31032,9 @@
       <c r="B6" t="s">
         <v>369</v>
       </c>
+      <c r="D6" t="s">
+        <v>498</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -30441,7 +31057,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q6" t="s">
         <v>24</v>
@@ -30500,7 +31116,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
@@ -30559,7 +31175,7 @@
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q8" t="s">
         <v>83</v>
@@ -30615,7 +31231,7 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Q9" t="s">
         <v>84</v>
@@ -30659,7 +31275,7 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q10" t="s">
         <v>425</v>
@@ -30699,6 +31315,9 @@
       <c r="M11" t="s">
         <v>481</v>
       </c>
+      <c r="N11" t="s">
+        <v>525</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -30734,6 +31353,9 @@
       <c r="M12" t="s">
         <v>446</v>
       </c>
+      <c r="N12" t="s">
+        <v>526</v>
+      </c>
       <c r="Q12" t="s">
         <v>34</v>
       </c>
@@ -31049,7 +31671,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -19,7 +19,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23811" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24347" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1671,6 +1671,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1684,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="767" x14ac:knownFonts="1">
+  <fonts count="783" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6506,8 +6512,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1341">
+  <fills count="1371">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14102,8 +14209,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1374">
+  <borders count="1402">
     <border>
       <left/>
       <right/>
@@ -14125,6 +14402,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27950,7 +28509,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="780">
+  <cellXfs count="796">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30249,52 +30808,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1310" fontId="750" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="1313" borderId="1353" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1353" fillId="1313" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="752" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1316" borderId="1357" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1357" fillId="1316" fontId="753" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1319" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1361" fillId="1319" fontId="754" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1322" borderId="1361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1361" fillId="1322" fontId="755" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="756" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="1325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1325" fontId="757" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="759" fillId="1328" borderId="1365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="760" fillId="1331" borderId="1369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="761" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="762" fillId="1334" borderId="1373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="763" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="764" fillId="1337" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="765" fillId="1322" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="1340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1365" fillId="1328" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1369" fillId="1331" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1373" fillId="1334" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1373" fillId="1334" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1322" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1337" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1322" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1340" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1343" borderId="1381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1346" borderId="1385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1349" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1352" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1358" borderId="1393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1361" borderId="1397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1370" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30592,7 +31199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -30976,6 +31583,9 @@
       <c r="H5" t="s">
         <v>462</v>
       </c>
+      <c r="I5" t="s">
+        <v>535</v>
+      </c>
       <c r="J5" t="s">
         <v>344</v>
       </c>
@@ -31849,7 +32459,7 @@
         <v>260</v>
       </c>
       <c r="Y39" t="s">
-        <v>386</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40">
@@ -31857,7 +32467,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
@@ -31865,7 +32475,7 @@
         <v>206</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -31873,7 +32483,7 @@
         <v>282</v>
       </c>
       <c r="Y42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
@@ -31881,7 +32491,7 @@
         <v>293</v>
       </c>
       <c r="Y43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -31889,7 +32499,7 @@
         <v>294</v>
       </c>
       <c r="Y44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -31897,7 +32507,7 @@
         <v>336</v>
       </c>
       <c r="Y45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -31905,7 +32515,7 @@
         <v>335</v>
       </c>
       <c r="Y46" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -31913,7 +32523,7 @@
         <v>205</v>
       </c>
       <c r="Y47" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48">
@@ -31921,7 +32531,7 @@
         <v>313</v>
       </c>
       <c r="Y48" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49">
@@ -31929,7 +32539,7 @@
         <v>332</v>
       </c>
       <c r="Y49" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -31937,7 +32547,7 @@
         <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -31945,7 +32555,7 @@
         <v>295</v>
       </c>
       <c r="Y51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -31953,7 +32563,7 @@
         <v>349</v>
       </c>
       <c r="Y52" t="s">
-        <v>492</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -31961,7 +32571,7 @@
         <v>324</v>
       </c>
       <c r="Y53" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54">
@@ -31969,7 +32579,7 @@
         <v>261</v>
       </c>
       <c r="Y54" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55">
@@ -31977,7 +32587,7 @@
         <v>285</v>
       </c>
       <c r="Y55" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
@@ -31985,7 +32595,7 @@
         <v>286</v>
       </c>
       <c r="Y56" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57">
@@ -31993,7 +32603,7 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58">
@@ -32001,7 +32611,7 @@
         <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -32009,7 +32619,7 @@
         <v>305</v>
       </c>
       <c r="Y59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -32017,7 +32627,7 @@
         <v>330</v>
       </c>
       <c r="Y60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -32025,7 +32635,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -32033,7 +32643,7 @@
         <v>303</v>
       </c>
       <c r="Y62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -32041,7 +32651,7 @@
         <v>362</v>
       </c>
       <c r="Y63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -32049,7 +32659,7 @@
         <v>363</v>
       </c>
       <c r="Y64" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -32057,7 +32667,7 @@
         <v>338</v>
       </c>
       <c r="Y65" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66">
@@ -32065,7 +32675,7 @@
         <v>306</v>
       </c>
       <c r="Y66" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67">
@@ -32073,7 +32683,7 @@
         <v>262</v>
       </c>
       <c r="Y67" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68">
@@ -32081,7 +32691,7 @@
         <v>346</v>
       </c>
       <c r="Y68" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69">
@@ -32089,7 +32699,7 @@
         <v>307</v>
       </c>
       <c r="Y69" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70">
@@ -32097,7 +32707,7 @@
         <v>401</v>
       </c>
       <c r="Y70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
@@ -32105,7 +32715,7 @@
         <v>297</v>
       </c>
       <c r="Y71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
@@ -32113,7 +32723,7 @@
         <v>402</v>
       </c>
       <c r="Y72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -32121,7 +32731,7 @@
         <v>255</v>
       </c>
       <c r="Y73" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
@@ -32129,7 +32739,7 @@
         <v>517</v>
       </c>
       <c r="Y74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75">
@@ -32137,7 +32747,7 @@
         <v>337</v>
       </c>
       <c r="Y75" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
@@ -32145,7 +32755,7 @@
         <v>273</v>
       </c>
       <c r="Y76" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77">
@@ -32153,7 +32763,7 @@
         <v>279</v>
       </c>
       <c r="Y77" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78">
@@ -32161,7 +32771,7 @@
         <v>284</v>
       </c>
       <c r="Y78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
@@ -32169,7 +32779,7 @@
         <v>420</v>
       </c>
       <c r="Y79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
@@ -32177,7 +32787,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>504</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
@@ -32185,7 +32795,7 @@
         <v>263</v>
       </c>
       <c r="Y81" t="s">
-        <v>138</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82">
@@ -32193,7 +32803,7 @@
         <v>274</v>
       </c>
       <c r="Y82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -32201,7 +32811,7 @@
         <v>280</v>
       </c>
       <c r="Y83" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -32209,7 +32819,7 @@
         <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>493</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
@@ -32217,7 +32827,7 @@
         <v>264</v>
       </c>
       <c r="Y85" t="s">
-        <v>194</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86">
@@ -32225,7 +32835,7 @@
         <v>281</v>
       </c>
       <c r="Y86" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87">
@@ -32233,7 +32843,7 @@
         <v>265</v>
       </c>
       <c r="Y87" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88">
@@ -32241,7 +32851,7 @@
         <v>266</v>
       </c>
       <c r="Y88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -32249,7 +32859,7 @@
         <v>298</v>
       </c>
       <c r="Y89" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -32257,7 +32867,7 @@
         <v>304</v>
       </c>
       <c r="Y90" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -32265,7 +32875,7 @@
         <v>288</v>
       </c>
       <c r="Y91" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
@@ -32273,7 +32883,7 @@
         <v>333</v>
       </c>
       <c r="Y92" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -32281,7 +32891,7 @@
         <v>270</v>
       </c>
       <c r="Y93" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94">
@@ -32289,171 +32899,176 @@
         <v>271</v>
       </c>
       <c r="Y94" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>519</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>376</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -17,13 +17,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -35,11 +35,11 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24347" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24893" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1677,6 +1677,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1717,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="783" x14ac:knownFonts="1">
+  <fonts count="799" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6613,8 +6646,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1371">
+  <fills count="1398">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14379,8 +14513,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1402">
+  <borders count="1434">
     <border>
       <left/>
       <right/>
@@ -28325,6 +28612,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28509,7 +29122,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="796">
+  <cellXfs count="812">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30856,52 +31469,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1340" fontId="766" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1343" borderId="1381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1381" fillId="1343" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="768" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1346" borderId="1385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1385" fillId="1346" fontId="769" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1349" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1389" fillId="1349" fontId="770" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1352" borderId="1389" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1389" fillId="1352" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="772" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1355" fontId="773" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="1358" borderId="1393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="776" fillId="1361" borderId="1397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="1364" borderId="1401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="1367" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="1352" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="782" fillId="1370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1393" fillId="1358" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1397" fillId="1361" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1401" fillId="1364" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1401" fillId="1364" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1352" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1367" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1352" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1370" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1373" borderId="1409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1376" borderId="1413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1379" borderId="1417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1382" borderId="1421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1388" borderId="1425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1379" borderId="1429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1397" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31199,7 +31860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -31719,6 +32380,9 @@
       <c r="H7" t="s">
         <v>453</v>
       </c>
+      <c r="J7" t="s">
+        <v>539</v>
+      </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
@@ -31759,7 +32423,7 @@
         <v>440</v>
       </c>
       <c r="AD7" t="s">
-        <v>225</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8">
@@ -31815,7 +32479,7 @@
         <v>441</v>
       </c>
       <c r="AD8" t="s">
-        <v>226</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9">
@@ -31862,7 +32526,7 @@
         <v>182</v>
       </c>
       <c r="AD9" t="s">
-        <v>227</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
@@ -31903,7 +32567,7 @@
         <v>183</v>
       </c>
       <c r="AD10" t="s">
-        <v>484</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -31941,7 +32605,7 @@
         <v>252</v>
       </c>
       <c r="AD11" t="s">
-        <v>500</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -31961,7 +32625,7 @@
         <v>383</v>
       </c>
       <c r="M12" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="N12" t="s">
         <v>526</v>
@@ -31979,7 +32643,7 @@
         <v>184</v>
       </c>
       <c r="AD12" t="s">
-        <v>501</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -31999,7 +32663,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="Q13" t="s">
         <v>86</v>
@@ -32014,7 +32678,7 @@
         <v>185</v>
       </c>
       <c r="AD13" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14">
@@ -32034,7 +32698,7 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="Q14" t="s">
         <v>87</v>
@@ -32049,7 +32713,7 @@
         <v>186</v>
       </c>
       <c r="AD14" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -32066,7 +32730,7 @@
         <v>514</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
         <v>508</v>
@@ -32081,7 +32745,7 @@
         <v>187</v>
       </c>
       <c r="AD15" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
@@ -32098,7 +32762,7 @@
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s">
         <v>509</v>
@@ -32113,7 +32777,7 @@
         <v>188</v>
       </c>
       <c r="AD16" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17">
@@ -32129,6 +32793,9 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s">
         <v>510</v>
       </c>
@@ -32136,7 +32803,7 @@
         <v>471</v>
       </c>
       <c r="AD17" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18">
@@ -32156,7 +32823,7 @@
         <v>97</v>
       </c>
       <c r="AD18" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19">
@@ -32176,7 +32843,7 @@
         <v>98</v>
       </c>
       <c r="AD19" t="s">
-        <v>228</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20">
@@ -32196,7 +32863,7 @@
         <v>99</v>
       </c>
       <c r="AD20" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21">
@@ -32216,7 +32883,7 @@
         <v>100</v>
       </c>
       <c r="AD21" t="s">
-        <v>230</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22">
@@ -32235,6 +32902,9 @@
       <c r="Y22" t="s">
         <v>491</v>
       </c>
+      <c r="AD22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -32252,6 +32922,9 @@
       <c r="Y23" t="s">
         <v>102</v>
       </c>
+      <c r="AD23" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -32269,6 +32942,9 @@
       <c r="Y24" t="s">
         <v>103</v>
       </c>
+      <c r="AD24" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -32286,6 +32962,9 @@
       <c r="Y25" t="s">
         <v>104</v>
       </c>
+      <c r="AD25" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -32303,6 +32982,9 @@
       <c r="Y26" t="s">
         <v>105</v>
       </c>
+      <c r="AD26" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -32320,6 +33002,9 @@
       <c r="Y27" t="s">
         <v>106</v>
       </c>
+      <c r="AD27" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -32547,7 +33232,7 @@
         <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>120</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51">
@@ -32555,7 +33240,7 @@
         <v>295</v>
       </c>
       <c r="Y51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -32563,7 +33248,7 @@
         <v>349</v>
       </c>
       <c r="Y52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -32571,7 +33256,7 @@
         <v>324</v>
       </c>
       <c r="Y53" t="s">
-        <v>492</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -32579,7 +33264,7 @@
         <v>261</v>
       </c>
       <c r="Y54" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55">
@@ -32587,7 +33272,7 @@
         <v>285</v>
       </c>
       <c r="Y55" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56">
@@ -32595,7 +33280,7 @@
         <v>286</v>
       </c>
       <c r="Y56" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -32603,7 +33288,7 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
@@ -32611,7 +33296,7 @@
         <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
@@ -32619,7 +33304,7 @@
         <v>305</v>
       </c>
       <c r="Y59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
@@ -32627,7 +33312,7 @@
         <v>330</v>
       </c>
       <c r="Y60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -32635,7 +33320,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -32643,7 +33328,7 @@
         <v>303</v>
       </c>
       <c r="Y62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
@@ -32651,7 +33336,7 @@
         <v>362</v>
       </c>
       <c r="Y63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -32659,7 +33344,7 @@
         <v>363</v>
       </c>
       <c r="Y64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -32667,7 +33352,7 @@
         <v>338</v>
       </c>
       <c r="Y65" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -32675,7 +33360,7 @@
         <v>306</v>
       </c>
       <c r="Y66" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67">
@@ -32683,15 +33368,15 @@
         <v>262</v>
       </c>
       <c r="Y67" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>346</v>
+        <v>537</v>
       </c>
       <c r="Y68" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69">
@@ -32699,7 +33384,7 @@
         <v>307</v>
       </c>
       <c r="Y69" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70">
@@ -32707,7 +33392,7 @@
         <v>401</v>
       </c>
       <c r="Y70" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71">
@@ -32715,7 +33400,7 @@
         <v>297</v>
       </c>
       <c r="Y71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
@@ -32723,7 +33408,7 @@
         <v>402</v>
       </c>
       <c r="Y72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -32731,7 +33416,7 @@
         <v>255</v>
       </c>
       <c r="Y73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
@@ -32739,7 +33424,7 @@
         <v>517</v>
       </c>
       <c r="Y74" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
@@ -32747,7 +33432,7 @@
         <v>337</v>
       </c>
       <c r="Y75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76">
@@ -32755,7 +33440,7 @@
         <v>273</v>
       </c>
       <c r="Y76" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77">
@@ -32763,7 +33448,7 @@
         <v>279</v>
       </c>
       <c r="Y77" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78">
@@ -32771,7 +33456,7 @@
         <v>284</v>
       </c>
       <c r="Y78" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79">
@@ -32779,7 +33464,7 @@
         <v>420</v>
       </c>
       <c r="Y79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -32787,7 +33472,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
@@ -32795,7 +33480,7 @@
         <v>263</v>
       </c>
       <c r="Y81" t="s">
-        <v>504</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
@@ -32803,7 +33488,7 @@
         <v>274</v>
       </c>
       <c r="Y82" t="s">
-        <v>138</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83">
@@ -32811,7 +33496,7 @@
         <v>280</v>
       </c>
       <c r="Y83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -32819,256 +33504,264 @@
         <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>264</v>
+        <v>538</v>
       </c>
       <c r="Y85" t="s">
-        <v>493</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Y86" t="s">
-        <v>194</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Y87" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y88" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Y89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y90" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Y91" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y92" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y93" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>271</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>519</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>376</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -34,19 +34,20 @@
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24893" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25443" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1710,6 +1711,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="799" x14ac:knownFonts="1">
+  <fonts count="815" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6747,8 +6757,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1398">
+  <fills count="1425">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14666,8 +14777,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1434">
+  <borders count="1466">
     <border>
       <left/>
       <right/>
@@ -28612,6 +28876,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29122,7 +29712,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="812">
+  <cellXfs count="828">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31517,52 +32107,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1370" fontId="782" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="1373" borderId="1409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1409" fillId="1373" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="784" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1376" borderId="1413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1413" fillId="1376" fontId="785" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1379" borderId="1417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1417" fillId="1379" fontId="786" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="1382" borderId="1421" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1421" fillId="1382" fontId="787" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="788" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="1385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1385" fontId="789" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="1388" borderId="1425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="1379" borderId="1429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="793" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="794" fillId="1391" borderId="1433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="1394" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="1382" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="1397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1425" fillId="1388" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1429" fillId="1379" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1433" fillId="1391" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1433" fillId="1391" fontId="794" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1382" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1394" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1382" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1397" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1400" borderId="1441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1403" borderId="1445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1406" borderId="1449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1409" borderId="1453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="1412" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1415" borderId="1457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1406" borderId="1461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1421" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1424" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31860,7 +32498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -31943,21 +32581,24 @@
         <v>388</v>
       </c>
       <c r="Y1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -32035,21 +32676,24 @@
         <v>398</v>
       </c>
       <c r="Y2" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>436</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -32120,22 +32764,22 @@
       <c r="X3" t="s">
         <v>399</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -32203,22 +32847,22 @@
       <c r="X4" t="s">
         <v>400</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>347</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>437</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -32277,22 +32921,22 @@
       <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>348</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>438</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -32345,22 +32989,22 @@
       <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>450</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>439</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -32407,22 +33051,22 @@
       <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>451</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>440</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>542</v>
       </c>
     </row>
@@ -32463,22 +33107,22 @@
       <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>441</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>543</v>
       </c>
     </row>
@@ -32519,13 +33163,13 @@
       <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>544</v>
       </c>
     </row>
@@ -32560,13 +33204,13 @@
       <c r="T10" t="s">
         <v>397</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -32598,13 +33242,13 @@
       <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -32636,13 +33280,13 @@
       <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -32671,13 +33315,13 @@
       <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>484</v>
       </c>
     </row>
@@ -32706,13 +33350,13 @@
       <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -32738,13 +33382,13 @@
       <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -32770,13 +33414,13 @@
       <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>67</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>505</v>
       </c>
     </row>
@@ -32796,13 +33440,13 @@
       <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>510</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>471</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>506</v>
       </c>
     </row>
@@ -32819,10 +33463,10 @@
       <c r="K18" t="s">
         <v>463</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>485</v>
       </c>
     </row>
@@ -32839,10 +33483,10 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>502</v>
       </c>
     </row>
@@ -32859,10 +33503,10 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>503</v>
       </c>
     </row>
@@ -32871,7 +33515,7 @@
         <v>415</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>549</v>
       </c>
       <c r="G21" t="s">
         <v>291</v>
@@ -32879,10 +33523,10 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>507</v>
       </c>
     </row>
@@ -32891,7 +33535,7 @@
         <v>416</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>292</v>
@@ -32899,10 +33543,10 @@
       <c r="K22" t="s">
         <v>480</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>491</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32911,7 +33555,7 @@
         <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="G23" t="s">
         <v>283</v>
@@ -32919,10 +33563,10 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>545</v>
       </c>
     </row>
@@ -32931,7 +33575,7 @@
         <v>388</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
         <v>272</v>
@@ -32939,19 +33583,19 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>103</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>548</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="G25" t="s">
         <v>68</v>
@@ -32959,19 +33603,19 @@
       <c r="K25" t="s">
         <v>532</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>104</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
         <v>275</v>
@@ -32979,19 +33623,19 @@
       <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>105</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>478</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -32999,19 +33643,19 @@
       <c r="K27" t="s">
         <v>445</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>106</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G28" t="s">
         <v>276</v>
@@ -33019,16 +33663,16 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -33036,106 +33680,112 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>419</v>
       </c>
       <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>516</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>432</v>
       </c>
     </row>
@@ -33143,7 +33793,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>536</v>
       </c>
     </row>
@@ -33151,7 +33801,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -33159,7 +33809,7 @@
       <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -33167,7 +33817,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -33175,7 +33825,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -33183,7 +33833,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -33191,7 +33841,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -33199,7 +33849,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -33207,7 +33857,7 @@
       <c r="G47" t="s">
         <v>205</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>447</v>
       </c>
     </row>
@@ -33215,7 +33865,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>207</v>
       </c>
     </row>
@@ -33223,7 +33873,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -33231,7 +33881,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>541</v>
       </c>
     </row>
@@ -33239,7 +33889,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>120</v>
       </c>
     </row>
@@ -33247,7 +33897,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -33255,7 +33905,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>122</v>
       </c>
     </row>
@@ -33263,7 +33913,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>492</v>
       </c>
     </row>
@@ -33271,7 +33921,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>473</v>
       </c>
     </row>
@@ -33279,7 +33929,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -33287,7 +33937,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>339</v>
       </c>
     </row>
@@ -33295,7 +33945,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>466</v>
       </c>
     </row>
@@ -33303,7 +33953,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>124</v>
       </c>
     </row>
@@ -33311,7 +33961,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -33319,7 +33969,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>126</v>
       </c>
     </row>
@@ -33327,7 +33977,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33335,7 +33985,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -33343,7 +33993,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -33351,7 +34001,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -33359,7 +34009,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>443</v>
       </c>
     </row>
@@ -33367,7 +34017,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>483</v>
       </c>
     </row>
@@ -33375,7 +34025,7 @@
       <c r="G68" t="s">
         <v>537</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>208</v>
       </c>
     </row>
@@ -33383,7 +34033,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>382</v>
       </c>
     </row>
@@ -33391,7 +34041,7 @@
       <c r="G70" t="s">
         <v>401</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>448</v>
       </c>
     </row>
@@ -33399,7 +34049,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>131</v>
       </c>
     </row>
@@ -33407,7 +34057,7 @@
       <c r="G72" t="s">
         <v>402</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -33415,7 +34065,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -33423,7 +34073,7 @@
       <c r="G74" t="s">
         <v>517</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>134</v>
       </c>
     </row>
@@ -33431,7 +34081,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>191</v>
       </c>
     </row>
@@ -33439,7 +34089,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -33447,7 +34097,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>461</v>
       </c>
     </row>
@@ -33455,7 +34105,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>477</v>
       </c>
     </row>
@@ -33463,7 +34113,7 @@
       <c r="G79" t="s">
         <v>420</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -33471,7 +34121,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -33479,7 +34129,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -33487,7 +34137,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>504</v>
       </c>
     </row>
@@ -33495,7 +34145,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33503,7 +34153,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -33511,7 +34161,7 @@
       <c r="G85" t="s">
         <v>538</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -33519,7 +34169,7 @@
       <c r="G86" t="s">
         <v>264</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>493</v>
       </c>
     </row>
@@ -33527,7 +34177,7 @@
       <c r="G87" t="s">
         <v>281</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>194</v>
       </c>
     </row>
@@ -33535,7 +34185,7 @@
       <c r="G88" t="s">
         <v>265</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>460</v>
       </c>
     </row>
@@ -33543,7 +34193,7 @@
       <c r="G89" t="s">
         <v>266</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>195</v>
       </c>
     </row>
@@ -33551,7 +34201,7 @@
       <c r="G90" t="s">
         <v>298</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -33559,7 +34209,7 @@
       <c r="G91" t="s">
         <v>304</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>209</v>
       </c>
     </row>
@@ -33567,7 +34217,7 @@
       <c r="G92" t="s">
         <v>288</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33575,7 +34225,7 @@
       <c r="G93" t="s">
         <v>333</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -33583,7 +34233,7 @@
       <c r="G94" t="s">
         <v>270</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>434</v>
       </c>
     </row>
@@ -33591,177 +34241,177 @@
       <c r="G95" t="s">
         <v>271</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -17,7 +17,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25443" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25995" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1720,6 +1720,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1733,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="815" x14ac:knownFonts="1">
+  <fonts count="831" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6858,8 +6864,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1425">
+  <fills count="1452">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14930,8 +15037,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1466">
+  <borders count="1498">
     <border>
       <left/>
       <right/>
@@ -28876,6 +29136,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29712,7 +30298,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="828">
+  <cellXfs count="844">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32155,52 +32741,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1397" fontId="798" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="799" fillId="1400" borderId="1441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1441" fillId="1400" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="800" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="801" fillId="1403" borderId="1445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1445" fillId="1403" fontId="801" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="802" fillId="1406" borderId="1449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1449" fillId="1406" fontId="802" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="803" fillId="1409" borderId="1453" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1453" fillId="1409" fontId="803" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="804" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="805" fillId="1412" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1412" fontId="805" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="1415" borderId="1457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="1406" borderId="1461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="809" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="1418" borderId="1465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="811" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="1421" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="813" fillId="1409" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="1424" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1457" fillId="1415" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1461" fillId="1406" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1465" fillId="1418" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1465" fillId="1418" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1409" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1421" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1409" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1424" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1427" borderId="1473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1430" borderId="1477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1433" borderId="1481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1436" borderId="1485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1442" borderId="1489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1433" borderId="1493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1451" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33815,7 +34449,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>282</v>
+        <v>551</v>
       </c>
       <c r="Z42" t="s">
         <v>115</v>
@@ -33823,7 +34457,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Z43" t="s">
         <v>116</v>
@@ -33831,7 +34465,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s">
         <v>117</v>
@@ -33839,7 +34473,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Z45" t="s">
         <v>118</v>
@@ -33847,7 +34481,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -33855,7 +34489,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="Z47" t="s">
         <v>447</v>
@@ -33863,7 +34497,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="Z48" t="s">
         <v>207</v>
@@ -33871,7 +34505,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Z49" t="s">
         <v>69</v>
@@ -33879,7 +34513,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s">
         <v>541</v>
@@ -33887,7 +34521,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s">
         <v>120</v>
@@ -33895,7 +34529,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="Z52" t="s">
         <v>121</v>
@@ -33903,7 +34537,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Z53" t="s">
         <v>122</v>
@@ -33911,7 +34545,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Z54" t="s">
         <v>492</v>
@@ -33919,7 +34553,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Z55" t="s">
         <v>473</v>
@@ -33927,7 +34561,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z56" t="s">
         <v>123</v>
@@ -33935,7 +34569,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z57" t="s">
         <v>339</v>
@@ -33943,7 +34577,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>296</v>
+        <v>552</v>
       </c>
       <c r="Z58" t="s">
         <v>466</v>
@@ -33951,7 +34585,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="Z59" t="s">
         <v>124</v>
@@ -33959,7 +34593,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="Z60" t="s">
         <v>125</v>
@@ -33967,7 +34601,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Z61" t="s">
         <v>126</v>
@@ -33975,7 +34609,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="Z62" t="s">
         <v>127</v>
@@ -33983,7 +34617,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="Z63" t="s">
         <v>128</v>
@@ -33991,7 +34625,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="Z64" t="s">
         <v>129</v>
@@ -33999,7 +34633,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Z65" t="s">
         <v>130</v>
@@ -34007,7 +34641,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="Z66" t="s">
         <v>443</v>
@@ -34015,7 +34649,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="Z67" t="s">
         <v>483</v>
@@ -34023,7 +34657,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>537</v>
+        <v>306</v>
       </c>
       <c r="Z68" t="s">
         <v>208</v>
@@ -34031,7 +34665,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="Z69" t="s">
         <v>382</v>
@@ -34039,7 +34673,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>401</v>
+        <v>537</v>
       </c>
       <c r="Z70" t="s">
         <v>448</v>
@@ -34047,7 +34681,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z71" t="s">
         <v>131</v>
@@ -34055,7 +34689,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z72" t="s">
         <v>132</v>
@@ -34063,7 +34697,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="Z73" t="s">
         <v>133</v>
@@ -34071,7 +34705,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>517</v>
+        <v>402</v>
       </c>
       <c r="Z74" t="s">
         <v>134</v>
@@ -34079,7 +34713,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="Z75" t="s">
         <v>191</v>
@@ -34087,7 +34721,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>273</v>
+        <v>517</v>
       </c>
       <c r="Z76" t="s">
         <v>192</v>
@@ -34095,7 +34729,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="Z77" t="s">
         <v>461</v>
@@ -34103,7 +34737,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="Z78" t="s">
         <v>477</v>
@@ -34111,7 +34745,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="Z79" t="s">
         <v>135</v>
@@ -34119,7 +34753,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="Z80" t="s">
         <v>136</v>
@@ -34127,7 +34761,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>263</v>
+        <v>420</v>
       </c>
       <c r="Z81" t="s">
         <v>137</v>
@@ -34135,7 +34769,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="Z82" t="s">
         <v>504</v>
@@ -34143,7 +34777,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="Z83" t="s">
         <v>138</v>
@@ -34151,7 +34785,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z84" t="s">
         <v>139</v>
@@ -34159,7 +34793,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>538</v>
+        <v>280</v>
       </c>
       <c r="Z85" t="s">
         <v>193</v>
@@ -34167,7 +34801,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Z86" t="s">
         <v>493</v>
@@ -34175,7 +34809,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>281</v>
+        <v>538</v>
       </c>
       <c r="Z87" t="s">
         <v>194</v>
@@ -34183,7 +34817,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z88" t="s">
         <v>460</v>
@@ -34191,7 +34825,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Z89" t="s">
         <v>195</v>
@@ -34199,7 +34833,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Z90" t="s">
         <v>196</v>
@@ -34207,7 +34841,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -34215,7 +34849,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z92" t="s">
         <v>140</v>
@@ -34223,7 +34857,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="Z93" t="s">
         <v>197</v>
@@ -34231,7 +34865,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="Z94" t="s">
         <v>434</v>
@@ -34239,18 +34873,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Z95" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
       <c r="Z96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>271</v>
+      </c>
       <c r="Z97" t="s">
         <v>199</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -23,7 +23,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -34,15 +34,15 @@
     <definedName name="redis">'#system'!$T$2:$T$10</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="sms">'#system'!$U$2:$U$2</definedName>
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25995" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26545" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1726,6 +1726,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1736,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="831" x14ac:knownFonts="1">
+  <fonts count="847" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6965,8 +6968,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1452">
+  <fills count="1479">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15190,8 +15294,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1498">
+  <borders count="1530">
     <border>
       <left/>
       <right/>
@@ -29136,6 +29393,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30298,7 +30881,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="844">
+  <cellXfs count="860">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32789,52 +33372,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1424" fontId="814" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1427" borderId="1473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1473" fillId="1427" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="816" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1430" borderId="1477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1477" fillId="1430" fontId="817" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1433" borderId="1481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1481" fillId="1433" fontId="818" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="1436" borderId="1485" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1485" fillId="1436" fontId="819" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="820" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="821" fillId="1439" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1439" fontId="821" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="1442" borderId="1489" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="1433" borderId="1493" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="1445" borderId="1497" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="1448" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="1436" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="830" fillId="1451" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1489" fillId="1442" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1493" fillId="1433" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1497" fillId="1445" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1497" fillId="1445" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1436" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1448" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1436" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1451" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1454" borderId="1505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1457" borderId="1509" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1460" borderId="1513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1463" borderId="1517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1466" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1469" borderId="1521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1460" borderId="1525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="1475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1478" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33132,7 +33763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -33215,24 +33846,21 @@
         <v>388</v>
       </c>
       <c r="Y1" t="s">
-        <v>548</v>
+        <v>46</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC1" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="AD1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -33310,24 +33938,21 @@
         <v>398</v>
       </c>
       <c r="Y2" t="s">
-        <v>550</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="AA2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AB2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="AD2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -33398,22 +34023,22 @@
       <c r="X3" t="s">
         <v>399</v>
       </c>
+      <c r="Y3" t="s">
+        <v>90</v>
+      </c>
       <c r="Z3" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="AA3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
       <c r="AC3" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="AD3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -33481,22 +34106,22 @@
       <c r="X4" t="s">
         <v>400</v>
       </c>
+      <c r="Y4" t="s">
+        <v>347</v>
+      </c>
       <c r="Z4" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="AA4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AB4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC4" t="s">
-        <v>177</v>
+        <v>437</v>
       </c>
       <c r="AD4" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -33555,22 +34180,22 @@
       <c r="W5" t="s">
         <v>352</v>
       </c>
+      <c r="Y5" t="s">
+        <v>348</v>
+      </c>
       <c r="Z5" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AA5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC5" t="s">
-        <v>178</v>
+        <v>438</v>
       </c>
       <c r="AD5" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -33623,22 +34248,22 @@
       <c r="W6" t="s">
         <v>354</v>
       </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
       <c r="Z6" t="s">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="AA6" t="s">
-        <v>450</v>
+        <v>173</v>
       </c>
       <c r="AB6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC6" t="s">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="AD6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -33685,22 +34310,22 @@
       <c r="W7" t="s">
         <v>353</v>
       </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>451</v>
       </c>
       <c r="AA7" t="s">
-        <v>451</v>
+        <v>174</v>
       </c>
       <c r="AB7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC7" t="s">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="AD7" t="s">
-        <v>440</v>
-      </c>
-      <c r="AE7" t="s">
         <v>542</v>
       </c>
     </row>
@@ -33741,22 +34366,22 @@
       <c r="W8" t="s">
         <v>355</v>
       </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
       <c r="Z8" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="AA8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AB8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC8" t="s">
-        <v>181</v>
+        <v>441</v>
       </c>
       <c r="AD8" t="s">
-        <v>441</v>
-      </c>
-      <c r="AE8" t="s">
         <v>543</v>
       </c>
     </row>
@@ -33797,13 +34422,13 @@
       <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>203</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>544</v>
       </c>
     </row>
@@ -33838,13 +34463,13 @@
       <c r="T10" t="s">
         <v>397</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -33876,13 +34501,13 @@
       <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -33914,13 +34539,13 @@
       <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -33949,13 +34574,13 @@
       <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>484</v>
       </c>
     </row>
@@ -33984,13 +34609,13 @@
       <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>500</v>
       </c>
     </row>
@@ -34016,13 +34641,13 @@
       <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>501</v>
       </c>
     </row>
@@ -34040,7 +34665,7 @@
         <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>553</v>
       </c>
       <c r="Q16" t="s">
         <v>509</v>
@@ -34048,13 +34673,13 @@
       <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>67</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>505</v>
       </c>
     </row>
@@ -34072,15 +34697,15 @@
         <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" t="s">
         <v>510</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>471</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>506</v>
       </c>
     </row>
@@ -34097,10 +34722,13 @@
       <c r="K18" t="s">
         <v>463</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>485</v>
       </c>
     </row>
@@ -34117,10 +34745,10 @@
       <c r="K19" t="s">
         <v>75</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>502</v>
       </c>
     </row>
@@ -34137,10 +34765,10 @@
       <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>503</v>
       </c>
     </row>
@@ -34157,10 +34785,10 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>507</v>
       </c>
     </row>
@@ -34177,10 +34805,10 @@
       <c r="K22" t="s">
         <v>480</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>491</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>228</v>
       </c>
     </row>
@@ -34197,10 +34825,10 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>545</v>
       </c>
     </row>
@@ -34217,16 +34845,16 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>548</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>455</v>
@@ -34237,16 +34865,16 @@
       <c r="K25" t="s">
         <v>532</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
@@ -34257,16 +34885,16 @@
       <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>219</v>
@@ -34277,16 +34905,16 @@
       <c r="K27" t="s">
         <v>445</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>478</v>
@@ -34297,13 +34925,13 @@
       <c r="K28" t="s">
         <v>38</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="E29" t="s">
         <v>479</v>
@@ -34314,13 +34942,13 @@
       <c r="K29" t="s">
         <v>39</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
         <v>419</v>
@@ -34328,21 +34956,18 @@
       <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>220</v>
-      </c>
       <c r="E31" t="s">
         <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -34353,7 +34978,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -34364,7 +34989,7 @@
       <c r="G33" t="s">
         <v>516</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -34375,7 +35000,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -34386,7 +35011,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>204</v>
       </c>
     </row>
@@ -34397,7 +35022,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -34408,7 +35033,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -34419,7 +35044,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>432</v>
       </c>
     </row>
@@ -34427,7 +35052,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>536</v>
       </c>
     </row>
@@ -34435,7 +35060,7 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -34443,7 +35068,7 @@
       <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>114</v>
       </c>
     </row>
@@ -34451,7 +35076,7 @@
       <c r="G42" t="s">
         <v>551</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>115</v>
       </c>
     </row>
@@ -34459,7 +35084,7 @@
       <c r="G43" t="s">
         <v>282</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -34467,7 +35092,7 @@
       <c r="G44" t="s">
         <v>293</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -34475,7 +35100,7 @@
       <c r="G45" t="s">
         <v>294</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -34483,7 +35108,7 @@
       <c r="G46" t="s">
         <v>336</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -34491,7 +35116,7 @@
       <c r="G47" t="s">
         <v>335</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>447</v>
       </c>
     </row>
@@ -34499,7 +35124,7 @@
       <c r="G48" t="s">
         <v>205</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>207</v>
       </c>
     </row>
@@ -34507,7 +35132,7 @@
       <c r="G49" t="s">
         <v>313</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -34515,7 +35140,7 @@
       <c r="G50" t="s">
         <v>332</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>541</v>
       </c>
     </row>
@@ -34523,7 +35148,7 @@
       <c r="G51" t="s">
         <v>361</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>120</v>
       </c>
     </row>
@@ -34531,7 +35156,7 @@
       <c r="G52" t="s">
         <v>295</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -34539,7 +35164,7 @@
       <c r="G53" t="s">
         <v>349</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>122</v>
       </c>
     </row>
@@ -34547,7 +35172,7 @@
       <c r="G54" t="s">
         <v>324</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>492</v>
       </c>
     </row>
@@ -34555,7 +35180,7 @@
       <c r="G55" t="s">
         <v>261</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>473</v>
       </c>
     </row>
@@ -34563,7 +35188,7 @@
       <c r="G56" t="s">
         <v>285</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>123</v>
       </c>
     </row>
@@ -34571,7 +35196,7 @@
       <c r="G57" t="s">
         <v>286</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>339</v>
       </c>
     </row>
@@ -34579,7 +35204,7 @@
       <c r="G58" t="s">
         <v>552</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>466</v>
       </c>
     </row>
@@ -34587,7 +35212,7 @@
       <c r="G59" t="s">
         <v>287</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>124</v>
       </c>
     </row>
@@ -34595,7 +35220,7 @@
       <c r="G60" t="s">
         <v>296</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>125</v>
       </c>
     </row>
@@ -34603,7 +35228,7 @@
       <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>126</v>
       </c>
     </row>
@@ -34611,7 +35236,7 @@
       <c r="G62" t="s">
         <v>330</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34619,7 +35244,7 @@
       <c r="G63" t="s">
         <v>302</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -34627,7 +35252,7 @@
       <c r="G64" t="s">
         <v>303</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -34635,7 +35260,7 @@
       <c r="G65" t="s">
         <v>362</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -34643,7 +35268,7 @@
       <c r="G66" t="s">
         <v>363</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>443</v>
       </c>
     </row>
@@ -34651,7 +35276,7 @@
       <c r="G67" t="s">
         <v>338</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>483</v>
       </c>
     </row>
@@ -34659,7 +35284,7 @@
       <c r="G68" t="s">
         <v>306</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>208</v>
       </c>
     </row>
@@ -34667,7 +35292,7 @@
       <c r="G69" t="s">
         <v>262</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>382</v>
       </c>
     </row>
@@ -34675,7 +35300,7 @@
       <c r="G70" t="s">
         <v>537</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>448</v>
       </c>
     </row>
@@ -34683,7 +35308,7 @@
       <c r="G71" t="s">
         <v>307</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>131</v>
       </c>
     </row>
@@ -34691,7 +35316,7 @@
       <c r="G72" t="s">
         <v>401</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -34699,7 +35324,7 @@
       <c r="G73" t="s">
         <v>297</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -34707,7 +35332,7 @@
       <c r="G74" t="s">
         <v>402</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>134</v>
       </c>
     </row>
@@ -34715,7 +35340,7 @@
       <c r="G75" t="s">
         <v>255</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>191</v>
       </c>
     </row>
@@ -34723,7 +35348,7 @@
       <c r="G76" t="s">
         <v>517</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>192</v>
       </c>
     </row>
@@ -34731,7 +35356,7 @@
       <c r="G77" t="s">
         <v>337</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>461</v>
       </c>
     </row>
@@ -34739,7 +35364,7 @@
       <c r="G78" t="s">
         <v>273</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>477</v>
       </c>
     </row>
@@ -34747,7 +35372,7 @@
       <c r="G79" t="s">
         <v>279</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>135</v>
       </c>
     </row>
@@ -34755,7 +35380,7 @@
       <c r="G80" t="s">
         <v>284</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>136</v>
       </c>
     </row>
@@ -34763,7 +35388,7 @@
       <c r="G81" t="s">
         <v>420</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>137</v>
       </c>
     </row>
@@ -34771,7 +35396,7 @@
       <c r="G82" t="s">
         <v>325</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>504</v>
       </c>
     </row>
@@ -34779,7 +35404,7 @@
       <c r="G83" t="s">
         <v>263</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>138</v>
       </c>
     </row>
@@ -34787,7 +35412,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -34795,7 +35420,7 @@
       <c r="G85" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -34803,7 +35428,7 @@
       <c r="G86" t="s">
         <v>269</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>493</v>
       </c>
     </row>
@@ -34811,7 +35436,7 @@
       <c r="G87" t="s">
         <v>538</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>194</v>
       </c>
     </row>
@@ -34819,7 +35444,7 @@
       <c r="G88" t="s">
         <v>264</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>460</v>
       </c>
     </row>
@@ -34827,7 +35452,7 @@
       <c r="G89" t="s">
         <v>281</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>195</v>
       </c>
     </row>
@@ -34835,7 +35460,7 @@
       <c r="G90" t="s">
         <v>265</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -34843,7 +35468,7 @@
       <c r="G91" t="s">
         <v>266</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>209</v>
       </c>
     </row>
@@ -34851,7 +35476,7 @@
       <c r="G92" t="s">
         <v>298</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>140</v>
       </c>
     </row>
@@ -34859,7 +35484,7 @@
       <c r="G93" t="s">
         <v>304</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -34867,7 +35492,7 @@
       <c r="G94" t="s">
         <v>288</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>434</v>
       </c>
     </row>
@@ -34875,7 +35500,7 @@
       <c r="G95" t="s">
         <v>333</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
       </c>
     </row>
@@ -34883,7 +35508,7 @@
       <c r="G96" t="s">
         <v>270</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -34891,167 +35516,167 @@
       <c r="G97" t="s">
         <v>271</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26545" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29311" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1729,6 +1729,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1748,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="847" x14ac:knownFonts="1">
+  <fonts count="927" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7069,8 +7081,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1479">
+  <fills count="1614">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15447,8 +15964,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1530">
+  <borders count="1690">
     <border>
       <left/>
       <right/>
@@ -29393,6 +30675,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30881,7 +33793,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="860">
+  <cellXfs count="940">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33420,52 +36332,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1451" fontId="830" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1454" borderId="1505" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1505" fillId="1454" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="832" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="1457" borderId="1509" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1509" fillId="1457" fontId="833" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="1460" borderId="1513" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1513" fillId="1460" fontId="834" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="835" fillId="1463" borderId="1517" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1517" fillId="1463" fontId="835" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="836" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="837" fillId="1466" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1466" fontId="837" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="1469" borderId="1521" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="1460" borderId="1525" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="841" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="1472" borderId="1529" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="843" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="1475" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="845" fillId="1463" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="846" fillId="1478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1521" fillId="1469" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1525" fillId="1460" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1529" fillId="1472" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1529" fillId="1472" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1463" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1475" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1463" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1478" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1537" fillId="1481" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1541" fillId="1484" fontId="849" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1545" fillId="1487" fontId="850" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1549" fillId="1490" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="852" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1493" fontId="853" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1553" fillId="1496" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1557" fillId="1487" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1561" fillId="1499" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1561" fillId="1499" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1490" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1502" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1490" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1505" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1569" fillId="1508" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1573" fillId="1511" fontId="865" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1577" fillId="1514" fontId="866" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1581" fillId="1517" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="868" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1520" fontId="869" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1585" fillId="1523" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1589" fillId="1514" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1593" fillId="1526" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1593" fillId="1526" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1517" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1529" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1517" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1532" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1601" fillId="1535" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1605" fillId="1538" fontId="881" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1609" fillId="1541" fontId="882" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1613" fillId="1544" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="884" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1547" fontId="885" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="886" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1617" fillId="1550" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1621" fillId="1541" fontId="888" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1625" fillId="1553" fontId="889" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1625" fillId="1553" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1544" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1556" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1544" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1559" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1633" fillId="1562" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1637" fillId="1565" fontId="897" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1641" fillId="1568" fontId="898" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1645" fillId="1571" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="900" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1574" fontId="901" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="902" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1649" fillId="1577" fontId="903" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1653" fillId="1568" fontId="904" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1657" fillId="1580" fontId="905" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1657" fillId="1580" fontId="906" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1571" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1583" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1571" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1586" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1589" borderId="1665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1592" borderId="1669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1595" borderId="1673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1598" borderId="1677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="1601" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1604" borderId="1681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1595" borderId="1685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1610" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1613" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33763,7 +36915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -34846,7 +37998,7 @@
         <v>385</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>554</v>
       </c>
       <c r="AD24" t="s">
         <v>546</v>
@@ -34866,7 +38018,7 @@
         <v>532</v>
       </c>
       <c r="Y25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD25" t="s">
         <v>547</v>
@@ -34886,7 +38038,7 @@
         <v>77</v>
       </c>
       <c r="Y26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD26" t="s">
         <v>229</v>
@@ -34906,7 +38058,7 @@
         <v>445</v>
       </c>
       <c r="Y27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD27" t="s">
         <v>230</v>
@@ -34926,7 +38078,7 @@
         <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -34943,7 +38095,7 @@
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
@@ -34957,7 +38109,7 @@
         <v>210</v>
       </c>
       <c r="Y30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -34968,7 +38120,7 @@
         <v>268</v>
       </c>
       <c r="Y31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -34979,7 +38131,7 @@
         <v>278</v>
       </c>
       <c r="Y32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -34990,7 +38142,7 @@
         <v>516</v>
       </c>
       <c r="Y33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -35001,7 +38153,7 @@
         <v>253</v>
       </c>
       <c r="Y34" t="s">
-        <v>112</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35">
@@ -35012,7 +38164,7 @@
         <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -35023,7 +38175,7 @@
         <v>300</v>
       </c>
       <c r="Y36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -35034,7 +38186,7 @@
         <v>254</v>
       </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
@@ -35045,7 +38197,7 @@
         <v>301</v>
       </c>
       <c r="Y38" t="s">
-        <v>432</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -35053,7 +38205,7 @@
         <v>260</v>
       </c>
       <c r="Y39" t="s">
-        <v>536</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
@@ -35061,7 +38213,7 @@
         <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41">
@@ -35069,7 +38221,7 @@
         <v>206</v>
       </c>
       <c r="Y41" t="s">
-        <v>114</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42">
@@ -35077,7 +38229,7 @@
         <v>551</v>
       </c>
       <c r="Y42" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
@@ -35085,7 +38237,7 @@
         <v>282</v>
       </c>
       <c r="Y43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -35093,7 +38245,7 @@
         <v>293</v>
       </c>
       <c r="Y44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -35101,7 +38253,7 @@
         <v>294</v>
       </c>
       <c r="Y45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -35109,7 +38261,7 @@
         <v>336</v>
       </c>
       <c r="Y46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -35117,7 +38269,7 @@
         <v>335</v>
       </c>
       <c r="Y47" t="s">
-        <v>447</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -35125,7 +38277,7 @@
         <v>205</v>
       </c>
       <c r="Y48" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -35133,7 +38285,7 @@
         <v>313</v>
       </c>
       <c r="Y49" t="s">
-        <v>69</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50">
@@ -35141,7 +38293,7 @@
         <v>332</v>
       </c>
       <c r="Y50" t="s">
-        <v>541</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51">
@@ -35149,7 +38301,7 @@
         <v>361</v>
       </c>
       <c r="Y51" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -35157,7 +38309,7 @@
         <v>295</v>
       </c>
       <c r="Y52" t="s">
-        <v>121</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53">
@@ -35165,7 +38317,7 @@
         <v>349</v>
       </c>
       <c r="Y53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -35173,7 +38325,7 @@
         <v>324</v>
       </c>
       <c r="Y54" t="s">
-        <v>492</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -35181,7 +38333,7 @@
         <v>261</v>
       </c>
       <c r="Y55" t="s">
-        <v>473</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -35189,7 +38341,7 @@
         <v>285</v>
       </c>
       <c r="Y56" t="s">
-        <v>123</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57">
@@ -35197,7 +38349,7 @@
         <v>286</v>
       </c>
       <c r="Y57" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58">
@@ -35205,7 +38357,7 @@
         <v>552</v>
       </c>
       <c r="Y58" t="s">
-        <v>466</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -35213,7 +38365,7 @@
         <v>287</v>
       </c>
       <c r="Y59" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
@@ -35221,7 +38373,7 @@
         <v>296</v>
       </c>
       <c r="Y60" t="s">
-        <v>125</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61">
@@ -35229,7 +38381,7 @@
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -35237,7 +38389,7 @@
         <v>330</v>
       </c>
       <c r="Y62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -35245,7 +38397,7 @@
         <v>302</v>
       </c>
       <c r="Y63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
@@ -35253,7 +38405,7 @@
         <v>303</v>
       </c>
       <c r="Y64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
@@ -35261,7 +38413,7 @@
         <v>362</v>
       </c>
       <c r="Y65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
@@ -35269,7 +38421,7 @@
         <v>363</v>
       </c>
       <c r="Y66" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
@@ -35277,7 +38429,7 @@
         <v>338</v>
       </c>
       <c r="Y67" t="s">
-        <v>483</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
@@ -35285,7 +38437,7 @@
         <v>306</v>
       </c>
       <c r="Y68" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69">
@@ -35293,7 +38445,7 @@
         <v>262</v>
       </c>
       <c r="Y69" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70">
@@ -35301,7 +38453,7 @@
         <v>537</v>
       </c>
       <c r="Y70" t="s">
-        <v>448</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71">
@@ -35309,7 +38461,7 @@
         <v>307</v>
       </c>
       <c r="Y71" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72">
@@ -35317,7 +38469,7 @@
         <v>401</v>
       </c>
       <c r="Y72" t="s">
-        <v>132</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73">
@@ -35325,7 +38477,7 @@
         <v>297</v>
       </c>
       <c r="Y73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
@@ -35333,7 +38485,7 @@
         <v>402</v>
       </c>
       <c r="Y74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
@@ -35341,7 +38493,7 @@
         <v>255</v>
       </c>
       <c r="Y75" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
@@ -35349,7 +38501,7 @@
         <v>517</v>
       </c>
       <c r="Y76" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
@@ -35357,7 +38509,7 @@
         <v>337</v>
       </c>
       <c r="Y77" t="s">
-        <v>461</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
@@ -35365,7 +38517,7 @@
         <v>273</v>
       </c>
       <c r="Y78" t="s">
-        <v>477</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
@@ -35373,7 +38525,7 @@
         <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80">
@@ -35381,7 +38533,7 @@
         <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>136</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81">
@@ -35389,7 +38541,7 @@
         <v>420</v>
       </c>
       <c r="Y81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
@@ -35397,7 +38549,7 @@
         <v>325</v>
       </c>
       <c r="Y82" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
@@ -35405,7 +38557,7 @@
         <v>263</v>
       </c>
       <c r="Y83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
@@ -35413,7 +38565,7 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>139</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85">
@@ -35421,7 +38573,7 @@
         <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
@@ -35429,7 +38581,7 @@
         <v>269</v>
       </c>
       <c r="Y86" t="s">
-        <v>493</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
@@ -35437,7 +38589,7 @@
         <v>538</v>
       </c>
       <c r="Y87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
@@ -35445,7 +38597,7 @@
         <v>264</v>
       </c>
       <c r="Y88" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89">
@@ -35453,7 +38605,7 @@
         <v>281</v>
       </c>
       <c r="Y89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90">
@@ -35461,7 +38613,7 @@
         <v>265</v>
       </c>
       <c r="Y90" t="s">
-        <v>196</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91">
@@ -35469,7 +38621,7 @@
         <v>266</v>
       </c>
       <c r="Y91" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92">
@@ -35477,7 +38629,7 @@
         <v>298</v>
       </c>
       <c r="Y92" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -35485,7 +38637,7 @@
         <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94">
@@ -35493,7 +38645,7 @@
         <v>288</v>
       </c>
       <c r="Y94" t="s">
-        <v>434</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
@@ -35501,7 +38653,7 @@
         <v>333</v>
       </c>
       <c r="Y95" t="s">
-        <v>442</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
@@ -35509,7 +38661,7 @@
         <v>270</v>
       </c>
       <c r="Y96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
@@ -35517,166 +38669,186 @@
         <v>271</v>
       </c>
       <c r="Y97" t="s">
-        <v>199</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>515</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>518</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>376</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>145</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>449</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>158</v>
+        <v>449</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>40</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -17,7 +17,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29311" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29866" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1741,6 +1741,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1754,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="927" x14ac:knownFonts="1">
+  <fonts count="943" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7586,8 +7592,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1614">
+  <fills count="1641">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16729,8 +16836,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1690">
+  <borders count="1722">
     <border>
       <left/>
       <right/>
@@ -30675,6 +30935,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33793,7 +34379,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="940">
+  <cellXfs count="956">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36572,52 +37158,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1586" fontId="910" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="911" fillId="1589" borderId="1665" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1665" fillId="1589" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="912" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="913" fillId="1592" borderId="1669" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1669" fillId="1592" fontId="913" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1595" borderId="1673" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1673" fillId="1595" fontId="914" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="1598" borderId="1677" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1677" fillId="1598" fontId="915" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="916" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="1601" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1601" fontId="917" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="919" fillId="1604" borderId="1681" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="920" fillId="1595" borderId="1685" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="921" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="922" fillId="1607" borderId="1689" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="923" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="924" fillId="1610" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="1598" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="926" fillId="1613" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1681" fillId="1604" fontId="919" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1685" fillId="1595" fontId="920" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1689" fillId="1607" fontId="921" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1689" fillId="1607" fontId="922" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1598" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1610" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1598" fontId="925" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1613" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1616" borderId="1697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1619" borderId="1701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1622" borderId="1705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1625" borderId="1709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1628" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1631" borderId="1713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="1622" borderId="1717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1640" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37294,7 +37928,7 @@
         <v>444</v>
       </c>
       <c r="G5" t="s">
-        <v>329</v>
+        <v>558</v>
       </c>
       <c r="H5" t="s">
         <v>462</v>
@@ -37368,7 +38002,7 @@
         <v>511</v>
       </c>
       <c r="G6" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H6" t="s">
         <v>454</v>
@@ -37430,7 +38064,7 @@
         <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="H7" t="s">
         <v>453</v>
@@ -37492,7 +38126,7 @@
         <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" t="s">
         <v>321</v>
@@ -37548,7 +38182,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -37592,7 +38226,7 @@
         <v>308</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
         <v>458</v>
@@ -37633,7 +38267,7 @@
         <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
         <v>315</v>
@@ -37671,7 +38305,7 @@
         <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
         <v>316</v>
@@ -37709,7 +38343,7 @@
         <v>334</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
         <v>317</v>
@@ -37744,7 +38378,7 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="H14" t="s">
         <v>318</v>
@@ -37779,7 +38413,7 @@
         <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K15" t="s">
         <v>514</v>
@@ -37811,7 +38445,7 @@
         <v>378</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
         <v>73</v>
@@ -37843,7 +38477,7 @@
         <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
@@ -37869,7 +38503,7 @@
         <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>463</v>
@@ -37892,7 +38526,7 @@
         <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
         <v>75</v>
@@ -37912,7 +38546,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K20" t="s">
         <v>76</v>
@@ -37932,7 +38566,7 @@
         <v>549</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K21" t="s">
         <v>373</v>
@@ -37952,7 +38586,7 @@
         <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K22" t="s">
         <v>480</v>
@@ -37972,7 +38606,7 @@
         <v>314</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
@@ -37992,7 +38626,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K24" t="s">
         <v>385</v>
@@ -38012,7 +38646,7 @@
         <v>455</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
         <v>532</v>
@@ -38032,7 +38666,7 @@
         <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
         <v>77</v>
@@ -38052,7 +38686,7 @@
         <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
         <v>445</v>
@@ -38072,7 +38706,7 @@
         <v>478</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
@@ -38089,7 +38723,7 @@
         <v>479</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
@@ -38106,7 +38740,7 @@
         <v>419</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s">
         <v>107</v>
@@ -38117,7 +38751,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="Y31" t="s">
         <v>108</v>
@@ -38128,7 +38762,7 @@
         <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
         <v>109</v>
@@ -38139,7 +38773,7 @@
         <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>516</v>
+        <v>278</v>
       </c>
       <c r="Y33" t="s">
         <v>110</v>
@@ -38150,7 +38784,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>253</v>
+        <v>516</v>
       </c>
       <c r="Y34" t="s">
         <v>555</v>
@@ -38161,7 +38795,7 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="Y35" t="s">
         <v>111</v>
@@ -38172,7 +38806,7 @@
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s">
         <v>112</v>
@@ -38183,7 +38817,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
         <v>204</v>
@@ -38194,7 +38828,7 @@
         <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="Y38" t="s">
         <v>113</v>
@@ -38202,7 +38836,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s">
         <v>331</v>
@@ -38210,7 +38844,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="Y40" t="s">
         <v>432</v>
@@ -38218,7 +38852,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="Y41" t="s">
         <v>536</v>
@@ -38226,7 +38860,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>551</v>
+        <v>206</v>
       </c>
       <c r="Y42" t="s">
         <v>386</v>
@@ -38234,7 +38868,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>282</v>
+        <v>551</v>
       </c>
       <c r="Y43" t="s">
         <v>114</v>
@@ -38242,7 +38876,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Y44" t="s">
         <v>115</v>
@@ -38250,7 +38884,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y45" t="s">
         <v>116</v>
@@ -38258,7 +38892,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Y46" t="s">
         <v>117</v>
@@ -38266,7 +38900,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y47" t="s">
         <v>118</v>
@@ -38274,7 +38908,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="Y48" t="s">
         <v>119</v>
@@ -38282,7 +38916,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="Y49" t="s">
         <v>447</v>
@@ -38290,7 +38924,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Y50" t="s">
         <v>207</v>
@@ -38298,7 +38932,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Y51" t="s">
         <v>69</v>
@@ -38306,7 +38940,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Y52" t="s">
         <v>541</v>
@@ -38314,7 +38948,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s">
         <v>120</v>
@@ -38322,7 +38956,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Y54" t="s">
         <v>121</v>
@@ -38330,7 +38964,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Y55" t="s">
         <v>122</v>
@@ -38338,7 +38972,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Y56" t="s">
         <v>492</v>
@@ -38346,7 +38980,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y57" t="s">
         <v>473</v>
@@ -38354,7 +38988,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>552</v>
+        <v>286</v>
       </c>
       <c r="Y58" t="s">
         <v>123</v>
@@ -38362,7 +38996,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>287</v>
+        <v>552</v>
       </c>
       <c r="Y59" t="s">
         <v>339</v>
@@ -38370,7 +39004,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s">
         <v>466</v>
@@ -38378,7 +39012,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s">
         <v>124</v>
@@ -38386,7 +39020,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="Y62" t="s">
         <v>125</v>
@@ -38394,7 +39028,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s">
         <v>126</v>
@@ -38402,7 +39036,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y64" t="s">
         <v>127</v>
@@ -38410,7 +39044,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="Y65" t="s">
         <v>128</v>
@@ -38418,7 +39052,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y66" t="s">
         <v>129</v>
@@ -38426,7 +39060,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="Y67" t="s">
         <v>130</v>
@@ -38434,7 +39068,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="Y68" t="s">
         <v>443</v>
@@ -38442,7 +39076,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="Y69" t="s">
         <v>483</v>
@@ -38450,7 +39084,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>537</v>
+        <v>262</v>
       </c>
       <c r="Y70" t="s">
         <v>208</v>
@@ -38458,7 +39092,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>307</v>
+        <v>537</v>
       </c>
       <c r="Y71" t="s">
         <v>382</v>
@@ -38466,7 +39100,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="Y72" t="s">
         <v>448</v>
@@ -38474,7 +39108,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>297</v>
+        <v>401</v>
       </c>
       <c r="Y73" t="s">
         <v>131</v>
@@ -38482,7 +39116,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="Y74" t="s">
         <v>132</v>
@@ -38490,7 +39124,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="Y75" t="s">
         <v>133</v>
@@ -38498,7 +39132,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>517</v>
+        <v>255</v>
       </c>
       <c r="Y76" t="s">
         <v>134</v>
@@ -38506,7 +39140,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>337</v>
+        <v>517</v>
       </c>
       <c r="Y77" t="s">
         <v>191</v>
@@ -38514,7 +39148,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="Y78" t="s">
         <v>192</v>
@@ -38522,7 +39156,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Y79" t="s">
         <v>461</v>
@@ -38530,7 +39164,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y80" t="s">
         <v>477</v>
@@ -38538,7 +39172,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>420</v>
+        <v>284</v>
       </c>
       <c r="Y81" t="s">
         <v>135</v>
@@ -38546,7 +39180,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>325</v>
+        <v>420</v>
       </c>
       <c r="Y82" t="s">
         <v>136</v>
@@ -38554,7 +39188,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="Y83" t="s">
         <v>137</v>
@@ -38562,7 +39196,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Y84" t="s">
         <v>504</v>
@@ -38570,7 +39204,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Y85" t="s">
         <v>138</v>
@@ -38578,7 +39212,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Y86" t="s">
         <v>139</v>
@@ -38586,7 +39220,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>538</v>
+        <v>269</v>
       </c>
       <c r="Y87" t="s">
         <v>193</v>
@@ -38594,7 +39228,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>264</v>
+        <v>538</v>
       </c>
       <c r="Y88" t="s">
         <v>493</v>
@@ -38602,7 +39236,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Y89" t="s">
         <v>194</v>
@@ -38610,7 +39244,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Y90" t="s">
         <v>460</v>
@@ -38618,7 +39252,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y91" t="s">
         <v>195</v>
@@ -38626,7 +39260,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Y92" t="s">
         <v>196</v>
@@ -38634,15 +39268,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y93" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Y94" t="s">
         <v>209</v>
@@ -38650,7 +39284,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y95" t="s">
         <v>140</v>
@@ -38658,7 +39292,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y96" t="s">
         <v>197</v>
@@ -38666,13 +39300,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y97" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>271</v>
+      </c>
       <c r="Y98" t="s">
         <v>442</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29866" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30422" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1747,6 +1747,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1757,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="943" x14ac:knownFonts="1">
+  <fonts count="959" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7693,8 +7696,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1641">
+  <fills count="1668">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16989,8 +17093,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1722">
+  <borders count="1754">
     <border>
       <left/>
       <right/>
@@ -30935,6 +31192,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34379,7 +34962,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="956">
+  <cellXfs count="972">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37206,52 +37789,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1613" fontId="926" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="927" fillId="1616" borderId="1697" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1697" fillId="1616" fontId="927" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="928" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="1619" borderId="1701" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1701" fillId="1619" fontId="929" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1622" borderId="1705" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1705" fillId="1622" fontId="930" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="1625" borderId="1709" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1709" fillId="1625" fontId="931" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="932" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1628" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1628" fontId="933" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="935" fillId="1631" borderId="1713" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="936" fillId="1622" borderId="1717" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="937" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="938" fillId="1634" borderId="1721" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="939" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="1637" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="941" fillId="1625" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="942" fillId="1640" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="934" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1713" fillId="1631" fontId="935" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1717" fillId="1622" fontId="936" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1721" fillId="1634" fontId="937" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1721" fillId="1634" fontId="938" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1625" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1637" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1625" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1640" fontId="942" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1643" borderId="1729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1646" borderId="1733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1649" borderId="1737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1652" borderId="1741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1658" borderId="1745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="1649" borderId="1749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1664" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="1667" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37549,7 +38180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -39279,7 +39910,7 @@
         <v>304</v>
       </c>
       <c r="Y94" t="s">
-        <v>209</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95">
@@ -39287,7 +39918,7 @@
         <v>288</v>
       </c>
       <c r="Y95" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
@@ -39295,7 +39926,7 @@
         <v>333</v>
       </c>
       <c r="Y96" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
@@ -39303,7 +39934,7 @@
         <v>270</v>
       </c>
       <c r="Y97" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
@@ -39311,181 +39942,186 @@
         <v>271</v>
       </c>
       <c r="Y98" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>519</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>376</v>
+        <v>519</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>556</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>157</v>
+        <v>556</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,41 +13,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30422" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30982" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1750,6 +1751,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="959" x14ac:knownFonts="1">
+  <fonts count="975" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7797,8 +7816,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1668">
+  <fills count="1695">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17246,8 +17366,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1754">
+  <borders count="1786">
     <border>
       <left/>
       <right/>
@@ -31192,6 +31465,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34962,7 +35561,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="972">
+  <cellXfs count="988">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37837,52 +38436,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1640" fontId="942" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="943" fillId="1643" borderId="1729" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1729" fillId="1643" fontId="943" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="944" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1646" borderId="1733" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1733" fillId="1646" fontId="945" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="1649" borderId="1737" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1737" fillId="1649" fontId="946" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1652" borderId="1741" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1741" fillId="1652" fontId="947" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="948" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="1655" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1655" fontId="949" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="951" fillId="1658" borderId="1745" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="952" fillId="1649" borderId="1749" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="953" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="954" fillId="1661" borderId="1753" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="955" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="1664" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="1652" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="958" fillId="1667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="950" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1745" fillId="1658" fontId="951" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1749" fillId="1649" fontId="952" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1753" fillId="1661" fontId="953" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1753" fillId="1661" fontId="954" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1652" fontId="955" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1664" fontId="956" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1652" fontId="957" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1667" fontId="958" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1670" borderId="1761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1673" borderId="1765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="1676" borderId="1769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="1679" borderId="1773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="1682" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="1685" borderId="1777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="1676" borderId="1781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="1691" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="1694" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -38180,7 +38827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -38203,81 +38850,84 @@
         <v>494</v>
       </c>
       <c r="E1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>326</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>520</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>232</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>387</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>415</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>416</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>350</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>388</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -38295,81 +38945,84 @@
         <v>495</v>
       </c>
       <c r="E2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>456</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>476</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>308</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>377</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>421</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>521</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>488</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>422</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>423</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>246</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>211</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>389</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>427</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>428</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>374</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>398</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>436</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -38386,76 +39039,76 @@
       <c r="D3" t="s">
         <v>531</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>464</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>358</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>486</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>334</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>327</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>522</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>489</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>424</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>233</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>212</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>390</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>429</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>375</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>399</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -38469,82 +39122,82 @@
       <c r="D4" t="s">
         <v>496</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>380</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>457</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>487</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>343</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>231</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>328</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>523</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>490</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>234</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>213</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>391</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>430</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>351</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>400</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>347</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>437</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
@@ -38552,73 +39205,73 @@
       <c r="D5" t="s">
         <v>497</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>465</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>444</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>558</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>462</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>535</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>344</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>470</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>533</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>23</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>235</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>214</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>392</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>431</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
-        <v>348</v>
-      </c>
       <c r="Z5" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>438</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
@@ -38626,1502 +39279,1510 @@
       <c r="D6" t="s">
         <v>498</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>511</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>329</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>454</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>341</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>527</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>236</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>384</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>393</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>450</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>439</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>381</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>453</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>539</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>528</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>237</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>426</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>394</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>451</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>440</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>311</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>359</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>321</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>512</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>529</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>83</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>238</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>395</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>441</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>360</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>322</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>534</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>84</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>239</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>396</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>203</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>308</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>299</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>458</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>524</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>425</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>240</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>397</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" t="s">
+        <v>563</v>
+      </c>
+      <c r="H11" t="s">
         <v>345</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>315</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>513</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>481</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>525</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>85</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>312</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>316</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>383</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>540</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>526</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>34</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
         <v>334</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>256</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>317</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>446</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>86</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>318</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>482</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>87</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" t="s">
+        <v>520</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>257</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>514</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>508</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" t="s">
         <v>378</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>258</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>73</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>553</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>509</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>67</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
         <v>379</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>310</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>74</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>510</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>471</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
         <v>418</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>81</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>463</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>289</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>76</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" t="s">
         <v>549</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>290</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="E22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>291</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>480</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>491</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" t="s">
         <v>314</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>292</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>283</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>385</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>554</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" t="s">
         <v>455</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>272</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>532</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>103</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>218</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>68</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>104</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
         <v>219</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>275</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>445</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>105</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>478</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>259</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>38</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
         <v>479</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>39</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" t="s">
+        <v>419</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>220</v>
       </c>
-      <c r="E30" t="s">
-        <v>419</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>56</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>210</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>268</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>58</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>278</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>59</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>516</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>253</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>61</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>323</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>62</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>300</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>63</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>254</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39">
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>301</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>260</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>70</v>
       </c>
-      <c r="Y41" t="s">
-        <v>536</v>
+      <c r="Z41" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>206</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>551</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>282</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>293</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>294</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>336</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>335</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>205</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>313</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>332</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>295</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>324</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>261</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>285</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>286</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>552</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>287</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>296</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>305</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>330</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>302</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>338</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>306</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>262</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>537</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>307</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>297</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>255</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>517</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>337</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>273</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>279</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>284</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>325</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>263</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>274</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>280</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>269</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>538</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>264</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>281</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>265</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>266</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>298</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>304</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>288</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>333</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>270</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>271</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30982" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31542" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1776,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="975" x14ac:knownFonts="1">
+  <fonts count="991" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7917,8 +7917,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1695">
+  <fills count="1722">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17519,8 +17620,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1786">
+  <borders count="1818">
     <border>
       <left/>
       <right/>
@@ -31465,6 +31719,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35561,7 +36141,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="988">
+  <cellXfs count="1004">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38484,52 +39064,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1667" fontId="958" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="959" fillId="1670" borderId="1761" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="960" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1761" fillId="1670" fontId="959" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="960" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="961" fillId="1673" borderId="1765" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1765" fillId="1673" fontId="961" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="962" fillId="1676" borderId="1769" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1769" fillId="1676" fontId="962" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="963" fillId="1679" borderId="1773" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1773" fillId="1679" fontId="963" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="964" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="965" fillId="1682" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1682" fontId="965" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="966" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="967" fillId="1685" borderId="1777" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="968" fillId="1676" borderId="1781" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="969" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="970" fillId="1688" borderId="1785" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="971" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="972" fillId="1691" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="973" fillId="1679" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="974" fillId="1694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="966" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1777" fillId="1685" fontId="967" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1781" fillId="1676" fontId="968" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1785" fillId="1688" fontId="969" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1785" fillId="1688" fontId="970" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1679" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1691" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1679" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1694" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="1697" borderId="1793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="1700" borderId="1797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="1703" borderId="1801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="1706" borderId="1805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="1709" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="1712" borderId="1809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="1703" borderId="1813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="1718" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="1721" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31542" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32664" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1769,6 +1769,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="991" x14ac:knownFonts="1">
+  <fonts count="1023" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8018,8 +8024,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1722">
+  <fills count="1776">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17773,8 +17981,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1818">
+  <borders count="1882">
     <border>
       <left/>
       <right/>
@@ -31719,6 +32233,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -36141,7 +37307,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1004">
+  <cellXfs count="1036">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39112,52 +40278,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1694" fontId="974" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="975" fillId="1697" borderId="1793" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="976" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1793" fillId="1697" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="976" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="977" fillId="1700" borderId="1797" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1797" fillId="1700" fontId="977" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="978" fillId="1703" borderId="1801" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1801" fillId="1703" fontId="978" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="979" fillId="1706" borderId="1805" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1805" fillId="1706" fontId="979" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="980" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="980" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="981" fillId="1709" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1709" fontId="981" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="983" fillId="1712" borderId="1809" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="984" fillId="1703" borderId="1813" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="985" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="986" fillId="1715" borderId="1817" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="987" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="988" fillId="1718" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="989" fillId="1706" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="990" fillId="1721" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="982" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1809" fillId="1712" fontId="983" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1813" fillId="1703" fontId="984" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1817" fillId="1715" fontId="985" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1817" fillId="1715" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1706" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1718" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1706" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1721" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1825" fillId="1724" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="992" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1829" fillId="1727" fontId="993" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1833" fillId="1730" fontId="994" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1837" fillId="1733" fontId="995" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="996" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1736" fontId="997" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="998" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1841" fillId="1739" fontId="999" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1845" fillId="1730" fontId="1000" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1849" fillId="1742" fontId="1001" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1849" fillId="1742" fontId="1002" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1733" fontId="1003" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1745" fontId="1004" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1733" fontId="1005" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1748" fontId="1006" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="1751" borderId="1857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="1754" borderId="1861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="1757" borderId="1865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1760" borderId="1869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="1763" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1766" borderId="1873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="1757" borderId="1877" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="1772" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1775" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40412,7 +41674,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>567</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -40435,7 +41697,7 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>418</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -40455,7 +41717,7 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
@@ -40475,13 +41737,13 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>549</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>373</v>
+        <v>568</v>
       </c>
       <c r="Z21" t="s">
         <v>100</v>
@@ -40495,7 +41757,7 @@
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>549</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
@@ -40515,7 +41777,7 @@
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
@@ -40535,7 +41797,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
@@ -40555,7 +41817,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>455</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
@@ -40575,7 +41837,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="H26" t="s">
         <v>68</v>
@@ -40595,7 +41857,7 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
@@ -40615,7 +41877,7 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>478</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
@@ -40632,7 +41894,7 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
@@ -40649,7 +41911,7 @@
         <v>417</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
@@ -40663,7 +41925,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>419</v>
       </c>
       <c r="H31" t="s">
         <v>210</v>
@@ -40674,7 +41936,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -40685,7 +41947,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -40696,7 +41958,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
         <v>516</v>
@@ -40707,7 +41969,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -40718,7 +41980,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -40729,7 +41991,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -40740,7 +42002,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -40750,6 +42012,9 @@
       </c>
     </row>
     <row r="39">
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
       <c r="H39" t="s">
         <v>301</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32664" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33228" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1775,6 +1775,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1797,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1023" x14ac:knownFonts="1">
+  <fonts count="1039" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8226,8 +8241,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1776">
+  <fills count="1803">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18287,8 +18403,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1882">
+  <borders count="1914">
     <border>
       <left/>
       <right/>
@@ -32233,6 +32502,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37307,7 +37902,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1036">
+  <cellXfs count="1052">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40374,52 +40969,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1748" fontId="1006" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1007" fillId="1751" borderId="1857" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1857" fillId="1751" fontId="1007" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1008" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1009" fillId="1754" borderId="1861" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1861" fillId="1754" fontId="1009" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1010" fillId="1757" borderId="1865" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1865" fillId="1757" fontId="1010" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1760" borderId="1869" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1869" fillId="1760" fontId="1011" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1012" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="1763" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1763" fontId="1013" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1766" borderId="1873" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1016" fillId="1757" borderId="1877" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1017" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1018" fillId="1769" borderId="1881" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1019" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1020" fillId="1772" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1021" fillId="1760" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1775" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1014" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1873" fillId="1766" fontId="1015" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1877" fillId="1757" fontId="1016" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1881" fillId="1769" fontId="1017" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1881" fillId="1769" fontId="1018" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1760" fontId="1019" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1772" fontId="1020" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1760" fontId="1021" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1775" fontId="1022" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1778" borderId="1889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1781" borderId="1893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1784" borderId="1897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="1787" borderId="1901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="1790" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="1793" borderId="1905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="1784" borderId="1909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1799" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="1802" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40717,7 +41360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -41031,7 +41674,7 @@
         <v>343</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>570</v>
       </c>
       <c r="M4" t="s">
         <v>328</v>
@@ -41067,7 +41710,7 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>347</v>
+        <v>571</v>
       </c>
       <c r="AA4" t="s">
         <v>166</v>
@@ -41114,7 +41757,7 @@
         <v>344</v>
       </c>
       <c r="L5" t="s">
-        <v>470</v>
+        <v>231</v>
       </c>
       <c r="N5" t="s">
         <v>79</v>
@@ -41181,11 +41824,14 @@
       <c r="I6" t="s">
         <v>454</v>
       </c>
+      <c r="J6" t="s">
+        <v>569</v>
+      </c>
       <c r="K6" t="s">
         <v>341</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -41247,7 +41893,7 @@
         <v>539</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
         <v>308</v>
@@ -41306,7 +41952,7 @@
         <v>321</v>
       </c>
       <c r="L8" t="s">
-        <v>512</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>27</v>
@@ -41362,7 +42008,7 @@
         <v>322</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>512</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
@@ -41406,7 +42052,7 @@
         <v>458</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
@@ -41447,7 +42093,7 @@
         <v>315</v>
       </c>
       <c r="L11" t="s">
-        <v>513</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
         <v>481</v>
@@ -41485,7 +42131,7 @@
         <v>316</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>513</v>
       </c>
       <c r="N12" t="s">
         <v>540</v>
@@ -41523,7 +42169,7 @@
         <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="N13" t="s">
         <v>446</v>
@@ -41558,7 +42204,7 @@
         <v>318</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>482</v>
@@ -41590,7 +42236,7 @@
         <v>257</v>
       </c>
       <c r="L15" t="s">
-        <v>514</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
         <v>32</v>
@@ -41622,7 +42268,7 @@
         <v>258</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
       <c r="N16" t="s">
         <v>553</v>
@@ -41654,7 +42300,7 @@
         <v>310</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
         <v>33</v>
@@ -41674,13 +42320,13 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>567</v>
+        <v>418</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
       </c>
       <c r="L18" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
@@ -41697,13 +42343,13 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>418</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>463</v>
       </c>
       <c r="Z19" t="s">
         <v>98</v>
@@ -41717,13 +42363,13 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s">
         <v>99</v>
@@ -41737,13 +42383,13 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>549</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>568</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s">
         <v>100</v>
@@ -41757,13 +42403,13 @@
         <v>415</v>
       </c>
       <c r="F22" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
       </c>
       <c r="L22" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="Z22" t="s">
         <v>491</v>
@@ -41777,13 +42423,13 @@
         <v>416</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="Z23" t="s">
         <v>102</v>
@@ -41797,13 +42443,13 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
       </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s">
         <v>554</v>
@@ -41817,13 +42463,13 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
       <c r="Z25" t="s">
         <v>103</v>
@@ -41837,13 +42483,13 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>455</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
         <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="Z26" t="s">
         <v>104</v>
@@ -41857,13 +42503,13 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
       </c>
       <c r="L27" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s">
         <v>105</v>
@@ -41877,13 +42523,13 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>478</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="Z28" t="s">
         <v>106</v>
@@ -41894,13 +42540,13 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s">
         <v>320</v>
@@ -41911,10 +42557,13 @@
         <v>417</v>
       </c>
       <c r="F30" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
       </c>
       <c r="Z30" t="s">
         <v>107</v>
@@ -41925,7 +42574,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
         <v>210</v>
@@ -41936,7 +42585,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -41947,7 +42596,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -41958,7 +42607,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>516</v>
@@ -41969,7 +42618,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -41980,7 +42629,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -41991,7 +42640,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -42002,7 +42651,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -42012,9 +42661,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
       <c r="H39" t="s">
         <v>301</v>
       </c>
@@ -42496,186 +43142,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>198</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>515</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>566</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>142</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>143</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>449</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>556</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>158</v>
+        <v>556</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33228" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33792" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1797,7 +1797,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1039" x14ac:knownFonts="1">
+  <fonts count="1055" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8342,8 +8342,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1803">
+  <fills count="1830">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18556,8 +18657,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1914">
+  <borders count="1946">
     <border>
       <left/>
       <right/>
@@ -32502,6 +32756,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37902,7 +38482,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1052">
+  <cellXfs count="1068">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41017,52 +41597,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1775" fontId="1022" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1778" borderId="1889" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1889" fillId="1778" fontId="1023" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1024" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1781" borderId="1893" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1893" fillId="1781" fontId="1025" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1784" borderId="1897" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1897" fillId="1784" fontId="1026" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="1787" borderId="1901" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1901" fillId="1787" fontId="1027" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1028" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="1790" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1790" fontId="1029" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1031" fillId="1793" borderId="1905" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1032" fillId="1784" borderId="1909" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1033" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1034" fillId="1796" borderId="1913" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1799" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="1787" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1038" fillId="1802" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1030" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1905" fillId="1793" fontId="1031" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1909" fillId="1784" fontId="1032" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1913" fillId="1796" fontId="1033" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1913" fillId="1796" fontId="1034" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1787" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1799" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1787" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1802" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="1805" borderId="1921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1808" borderId="1925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="1811" borderId="1929" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="1814" borderId="1933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="1817" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="1820" borderId="1937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="1811" borderId="1941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="1826" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="1829" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -35,7 +35,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33792" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34922" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1790,6 +1790,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1055" x14ac:knownFonts="1">
+  <fonts count="1087" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8443,8 +8446,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1830">
+  <fills count="1884">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18810,8 +19015,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1946">
+  <borders count="2010">
     <border>
       <left/>
       <right/>
@@ -32756,6 +33267,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38482,7 +39645,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1068">
+  <cellXfs count="1100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41645,52 +42808,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1802" fontId="1038" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1039" fillId="1805" borderId="1921" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1040" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1921" fillId="1805" fontId="1039" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1040" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1808" borderId="1925" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1925" fillId="1808" fontId="1041" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1042" fillId="1811" borderId="1929" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1929" fillId="1811" fontId="1042" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1043" fillId="1814" borderId="1933" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1933" fillId="1814" fontId="1043" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1044" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1045" fillId="1817" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1817" fontId="1045" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1046" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1047" fillId="1820" borderId="1937" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1048" fillId="1811" borderId="1941" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1049" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1050" fillId="1823" borderId="1945" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1051" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1052" fillId="1826" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1053" fillId="1814" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1054" fillId="1829" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1046" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1937" fillId="1820" fontId="1047" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1941" fillId="1811" fontId="1048" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1945" fillId="1823" fontId="1049" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1945" fillId="1823" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1814" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1826" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1814" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1829" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1953" fillId="1832" fontId="1055" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1056" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1957" fillId="1835" fontId="1057" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1961" fillId="1838" fontId="1058" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1965" fillId="1841" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1060" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1844" fontId="1061" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1062" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1969" fillId="1847" fontId="1063" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1973" fillId="1838" fontId="1064" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1977" fillId="1850" fontId="1065" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1977" fillId="1850" fontId="1066" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1841" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1853" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1841" fontId="1069" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1856" fontId="1070" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="1859" borderId="1985" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1862" borderId="1989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1865" borderId="1993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1868" borderId="1997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="1871" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1874" borderId="2001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="1865" borderId="2005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="1880" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="1883" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -41988,7 +43247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -43693,7 +44952,7 @@
         <v>264</v>
       </c>
       <c r="Z89" t="s">
-        <v>194</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90">
@@ -43701,7 +44960,7 @@
         <v>281</v>
       </c>
       <c r="Z90" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
@@ -43709,7 +44968,7 @@
         <v>265</v>
       </c>
       <c r="Z91" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92">
@@ -43717,7 +44976,7 @@
         <v>266</v>
       </c>
       <c r="Z92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
@@ -43725,7 +44984,7 @@
         <v>298</v>
       </c>
       <c r="Z93" t="s">
-        <v>559</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
@@ -43733,7 +44992,7 @@
         <v>304</v>
       </c>
       <c r="Z94" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95">
@@ -43741,7 +45000,7 @@
         <v>288</v>
       </c>
       <c r="Z95" t="s">
-        <v>209</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96">
@@ -43749,7 +45008,7 @@
         <v>333</v>
       </c>
       <c r="Z96" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
@@ -43757,7 +45016,7 @@
         <v>270</v>
       </c>
       <c r="Z97" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
@@ -43765,201 +45024,206 @@
         <v>271</v>
       </c>
       <c r="Z98" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>442</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>515</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>566</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>142</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>519</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>376</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>449</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>156</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>556</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>157</v>
+        <v>556</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr documentId="13_ncr:1_{10EA5FD3-EAE8-CB4E-97D7-B766A29AD948}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="12580" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="12580" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34922" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35487" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1800,7 +1800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1087" x14ac:knownFonts="1">
+  <fonts count="1103" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8648,8 +8648,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1884">
+  <fills count="1911">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19321,8 +19422,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2010">
+  <borders count="2042">
     <border>
       <left/>
       <right/>
@@ -33267,6 +33521,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39645,7 +40225,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1100">
+  <cellXfs count="1116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42904,52 +43484,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1856" fontId="1070" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1071" fillId="1859" borderId="1985" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1985" fillId="1859" fontId="1071" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1072" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1862" borderId="1989" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1989" fillId="1862" fontId="1073" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1074" fillId="1865" borderId="1993" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1993" fillId="1865" fontId="1074" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1075" fillId="1868" borderId="1997" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1997" fillId="1868" fontId="1075" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1076" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1077" fillId="1871" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1871" fontId="1077" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1078" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1874" borderId="2001" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1080" fillId="1865" borderId="2005" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1081" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1082" fillId="1877" borderId="2009" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1083" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1084" fillId="1880" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1085" fillId="1868" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1086" fillId="1883" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1078" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2001" fillId="1874" fontId="1079" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2005" fillId="1865" fontId="1080" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2009" fillId="1877" fontId="1081" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2009" fillId="1877" fontId="1082" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1868" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1880" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1868" fontId="1085" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1883" fontId="1086" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="1886" borderId="2017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="1889" borderId="2021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="1892" borderId="2025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="1895" borderId="2029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="1898" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="1901" borderId="2033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="1892" borderId="2037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1907" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="1910" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43249,7 +43877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -45236,9 +45864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="J3" pane="bottomLeft" sqref="J3"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr documentId="13_ncr:1_{10EA5FD3-EAE8-CB4E-97D7-B766A29AD948}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="12580" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12580" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -29,15 +29,15 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35487" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36062" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1793,6 +1793,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1830,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1103" x14ac:knownFonts="1">
+  <fonts count="1119" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8749,8 +8779,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1911">
+  <fills count="1938">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19575,8 +19706,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2042">
+  <borders count="2074">
     <border>
       <left/>
       <right/>
@@ -33521,6 +33805,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40225,7 +40835,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1116">
+  <cellXfs count="1132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43532,52 +44142,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1883" fontId="1086" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1087" fillId="1886" borderId="2017" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1088" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2017" fillId="1886" fontId="1087" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1088" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1089" fillId="1889" borderId="2021" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2021" fillId="1889" fontId="1089" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1090" fillId="1892" borderId="2025" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2025" fillId="1892" fontId="1090" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1091" fillId="1895" borderId="2029" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2029" fillId="1895" fontId="1091" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1092" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1093" fillId="1898" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1898" fontId="1093" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1095" fillId="1901" borderId="2033" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1096" fillId="1892" borderId="2037" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1097" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1098" fillId="1904" borderId="2041" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1099" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1100" fillId="1907" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1101" fillId="1895" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1102" fillId="1910" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1094" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2033" fillId="1901" fontId="1095" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2037" fillId="1892" fontId="1096" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2041" fillId="1904" fontId="1097" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2041" fillId="1904" fontId="1098" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1895" fontId="1099" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1907" fontId="1100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1895" fontId="1101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1910" fontId="1102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="1913" borderId="2049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="1916" borderId="2053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="1919" borderId="2057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="1922" borderId="2061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="1925" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="1928" borderId="2065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="1919" borderId="2069" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="1934" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="1937" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43875,9 +44533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44305,7 +44963,7 @@
         <v>167</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>583</v>
       </c>
       <c r="AC5" t="s">
         <v>178</v>
@@ -44376,7 +45034,7 @@
         <v>450</v>
       </c>
       <c r="AB6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC6" t="s">
         <v>179</v>
@@ -44438,7 +45096,7 @@
         <v>451</v>
       </c>
       <c r="AB7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC7" t="s">
         <v>180</v>
@@ -44494,7 +45152,7 @@
         <v>168</v>
       </c>
       <c r="AB8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC8" t="s">
         <v>181</v>
@@ -44546,6 +45204,9 @@
       <c r="Z9" t="s">
         <v>203</v>
       </c>
+      <c r="AB9" t="s">
+        <v>175</v>
+      </c>
       <c r="AC9" t="s">
         <v>182</v>
       </c>
@@ -44564,7 +45225,7 @@
         <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>458</v>
+        <v>575</v>
       </c>
       <c r="L10" t="s">
         <v>72</v>
@@ -44586,6 +45247,9 @@
       </c>
       <c r="Z10" t="s">
         <v>250</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>584</v>
       </c>
       <c r="AC10" t="s">
         <v>183</v>
@@ -44605,7 +45269,7 @@
         <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
@@ -44643,7 +45307,7 @@
         <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L12" t="s">
         <v>513</v>
@@ -44681,7 +45345,7 @@
         <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L13" t="s">
         <v>383</v>
@@ -44693,7 +45357,7 @@
         <v>86</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>576</v>
       </c>
       <c r="Z13" t="s">
         <v>319</v>
@@ -44716,7 +45380,7 @@
         <v>309</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -44728,7 +45392,7 @@
         <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Z14" t="s">
         <v>95</v>
@@ -44750,6 +45414,9 @@
       <c r="H15" t="s">
         <v>257</v>
       </c>
+      <c r="I15" t="s">
+        <v>318</v>
+      </c>
       <c r="L15" t="s">
         <v>35</v>
       </c>
@@ -44760,10 +45427,10 @@
         <v>508</v>
       </c>
       <c r="S15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z15" t="s">
-        <v>96</v>
+        <v>577</v>
       </c>
       <c r="AC15" t="s">
         <v>187</v>
@@ -44792,10 +45459,10 @@
         <v>509</v>
       </c>
       <c r="S16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z16" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="s">
         <v>188</v>
@@ -44820,8 +45487,11 @@
       <c r="N17" t="s">
         <v>33</v>
       </c>
+      <c r="S17" t="s">
+        <v>245</v>
+      </c>
       <c r="Z17" t="s">
-        <v>510</v>
+        <v>67</v>
       </c>
       <c r="AC17" t="s">
         <v>471</v>
@@ -44847,7 +45517,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="AE18" t="s">
         <v>485</v>
@@ -44867,7 +45537,7 @@
         <v>463</v>
       </c>
       <c r="Z19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE19" t="s">
         <v>502</v>
@@ -44887,7 +45557,7 @@
         <v>75</v>
       </c>
       <c r="Z20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE20" t="s">
         <v>503</v>
@@ -44907,7 +45577,7 @@
         <v>76</v>
       </c>
       <c r="Z21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE21" t="s">
         <v>507</v>
@@ -44927,7 +45597,7 @@
         <v>568</v>
       </c>
       <c r="Z22" t="s">
-        <v>491</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="s">
         <v>228</v>
@@ -44947,7 +45617,7 @@
         <v>480</v>
       </c>
       <c r="Z23" t="s">
-        <v>102</v>
+        <v>491</v>
       </c>
       <c r="AE23" t="s">
         <v>545</v>
@@ -44967,7 +45637,7 @@
         <v>37</v>
       </c>
       <c r="Z24" t="s">
-        <v>554</v>
+        <v>102</v>
       </c>
       <c r="AE24" t="s">
         <v>546</v>
@@ -44987,7 +45657,7 @@
         <v>385</v>
       </c>
       <c r="Z25" t="s">
-        <v>103</v>
+        <v>554</v>
       </c>
       <c r="AE25" t="s">
         <v>547</v>
@@ -45007,7 +45677,7 @@
         <v>532</v>
       </c>
       <c r="Z26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE26" t="s">
         <v>229</v>
@@ -45027,7 +45697,7 @@
         <v>77</v>
       </c>
       <c r="Z27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE27" t="s">
         <v>230</v>
@@ -45047,7 +45717,7 @@
         <v>445</v>
       </c>
       <c r="Z28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -45064,7 +45734,7 @@
         <v>38</v>
       </c>
       <c r="Z29" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -45081,7 +45751,7 @@
         <v>39</v>
       </c>
       <c r="Z30" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
@@ -45095,7 +45765,7 @@
         <v>210</v>
       </c>
       <c r="Z31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -45106,7 +45776,7 @@
         <v>268</v>
       </c>
       <c r="Z32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -45117,7 +45787,7 @@
         <v>278</v>
       </c>
       <c r="Z33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -45128,7 +45798,7 @@
         <v>516</v>
       </c>
       <c r="Z34" t="s">
-        <v>555</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -45139,7 +45809,7 @@
         <v>253</v>
       </c>
       <c r="Z35" t="s">
-        <v>111</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36">
@@ -45150,7 +45820,7 @@
         <v>323</v>
       </c>
       <c r="Z36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -45161,7 +45831,7 @@
         <v>300</v>
       </c>
       <c r="Z37" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -45172,7 +45842,7 @@
         <v>254</v>
       </c>
       <c r="Z38" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
@@ -45180,7 +45850,7 @@
         <v>301</v>
       </c>
       <c r="Z39" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -45188,7 +45858,7 @@
         <v>260</v>
       </c>
       <c r="Z40" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41">
@@ -45196,7 +45866,7 @@
         <v>70</v>
       </c>
       <c r="Z41" t="s">
-        <v>565</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42">
@@ -45204,7 +45874,7 @@
         <v>206</v>
       </c>
       <c r="Z42" t="s">
-        <v>386</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43">
@@ -45212,7 +45882,7 @@
         <v>551</v>
       </c>
       <c r="Z43" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
@@ -45220,7 +45890,7 @@
         <v>282</v>
       </c>
       <c r="Z44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -45228,7 +45898,7 @@
         <v>293</v>
       </c>
       <c r="Z45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -45236,7 +45906,7 @@
         <v>294</v>
       </c>
       <c r="Z46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -45244,7 +45914,7 @@
         <v>336</v>
       </c>
       <c r="Z47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -45252,7 +45922,7 @@
         <v>335</v>
       </c>
       <c r="Z48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -45260,7 +45930,7 @@
         <v>205</v>
       </c>
       <c r="Z49" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
@@ -45268,7 +45938,7 @@
         <v>313</v>
       </c>
       <c r="Z50" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51">
@@ -45276,7 +45946,7 @@
         <v>332</v>
       </c>
       <c r="Z51" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52">
@@ -45284,7 +45954,7 @@
         <v>361</v>
       </c>
       <c r="Z52" t="s">
-        <v>541</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -45292,7 +45962,7 @@
         <v>295</v>
       </c>
       <c r="Z53" t="s">
-        <v>120</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54">
@@ -45300,7 +45970,7 @@
         <v>349</v>
       </c>
       <c r="Z54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -45308,7 +45978,7 @@
         <v>324</v>
       </c>
       <c r="Z55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -45316,7 +45986,7 @@
         <v>261</v>
       </c>
       <c r="Z56" t="s">
-        <v>492</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -45324,7 +45994,7 @@
         <v>285</v>
       </c>
       <c r="Z57" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
@@ -45332,7 +46002,7 @@
         <v>286</v>
       </c>
       <c r="Z58" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59">
@@ -45340,7 +46010,7 @@
         <v>552</v>
       </c>
       <c r="Z59" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -45348,7 +46018,7 @@
         <v>287</v>
       </c>
       <c r="Z60" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -45356,7 +46026,7 @@
         <v>296</v>
       </c>
       <c r="Z61" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
@@ -45364,7 +46034,7 @@
         <v>305</v>
       </c>
       <c r="Z62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
@@ -45372,7 +46042,7 @@
         <v>330</v>
       </c>
       <c r="Z63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -45380,7 +46050,7 @@
         <v>302</v>
       </c>
       <c r="Z64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -45388,7 +46058,7 @@
         <v>303</v>
       </c>
       <c r="Z65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
@@ -45396,7 +46066,7 @@
         <v>362</v>
       </c>
       <c r="Z66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
@@ -45404,7 +46074,7 @@
         <v>363</v>
       </c>
       <c r="Z67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
@@ -45412,7 +46082,7 @@
         <v>338</v>
       </c>
       <c r="Z68" t="s">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
@@ -45420,7 +46090,7 @@
         <v>306</v>
       </c>
       <c r="Z69" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70">
@@ -45428,7 +46098,7 @@
         <v>262</v>
       </c>
       <c r="Z70" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71">
@@ -45436,7 +46106,7 @@
         <v>537</v>
       </c>
       <c r="Z71" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72">
@@ -45444,7 +46114,7 @@
         <v>307</v>
       </c>
       <c r="Z72" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73">
@@ -45452,7 +46122,7 @@
         <v>401</v>
       </c>
       <c r="Z73" t="s">
-        <v>131</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74">
@@ -45460,7 +46130,7 @@
         <v>297</v>
       </c>
       <c r="Z74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
@@ -45468,7 +46138,7 @@
         <v>402</v>
       </c>
       <c r="Z75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
@@ -45476,7 +46146,7 @@
         <v>255</v>
       </c>
       <c r="Z76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
@@ -45484,7 +46154,7 @@
         <v>517</v>
       </c>
       <c r="Z77" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
@@ -45492,7 +46162,7 @@
         <v>337</v>
       </c>
       <c r="Z78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -45500,7 +46170,7 @@
         <v>273</v>
       </c>
       <c r="Z79" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
@@ -45508,7 +46178,7 @@
         <v>279</v>
       </c>
       <c r="Z80" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
@@ -45516,7 +46186,7 @@
         <v>284</v>
       </c>
       <c r="Z81" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82">
@@ -45524,7 +46194,7 @@
         <v>420</v>
       </c>
       <c r="Z82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
@@ -45532,7 +46202,7 @@
         <v>325</v>
       </c>
       <c r="Z83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
@@ -45540,7 +46210,7 @@
         <v>263</v>
       </c>
       <c r="Z84" t="s">
-        <v>504</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
@@ -45548,7 +46218,7 @@
         <v>274</v>
       </c>
       <c r="Z85" t="s">
-        <v>138</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86">
@@ -45556,7 +46226,7 @@
         <v>280</v>
       </c>
       <c r="Z86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
@@ -45564,7 +46234,7 @@
         <v>269</v>
       </c>
       <c r="Z87" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
@@ -45572,7 +46242,7 @@
         <v>538</v>
       </c>
       <c r="Z88" t="s">
-        <v>493</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89">
@@ -45580,7 +46250,7 @@
         <v>264</v>
       </c>
       <c r="Z89" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90">
@@ -45588,7 +46258,7 @@
         <v>281</v>
       </c>
       <c r="Z90" t="s">
-        <v>194</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91">
@@ -45596,7 +46266,7 @@
         <v>265</v>
       </c>
       <c r="Z91" t="s">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92">
@@ -45604,7 +46274,7 @@
         <v>266</v>
       </c>
       <c r="Z92" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93">
@@ -45612,7 +46282,7 @@
         <v>298</v>
       </c>
       <c r="Z93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
@@ -45620,7 +46290,7 @@
         <v>304</v>
       </c>
       <c r="Z94" t="s">
-        <v>559</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95">
@@ -45628,7 +46298,7 @@
         <v>288</v>
       </c>
       <c r="Z95" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96">
@@ -45636,7 +46306,7 @@
         <v>333</v>
       </c>
       <c r="Z96" t="s">
-        <v>209</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97">
@@ -45644,7 +46314,7 @@
         <v>270</v>
       </c>
       <c r="Z97" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
@@ -45652,206 +46322,236 @@
         <v>271</v>
       </c>
       <c r="Z98" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>442</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>566</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>142</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>143</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>150</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>449</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>556</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>159</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>160</v>
+        <v>556</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -18,7 +18,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36062" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36638" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1823,6 +1823,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1836,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1119" x14ac:knownFonts="1">
+  <fonts count="1135" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8880,8 +8886,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1938">
+  <fills count="1965">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19859,8 +19966,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2074">
+  <borders count="2106">
     <border>
       <left/>
       <right/>
@@ -33805,6 +34065,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40835,7 +41421,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1132">
+  <cellXfs count="1148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44190,52 +44776,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1910" fontId="1102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1103" fillId="1913" borderId="2049" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2049" fillId="1913" fontId="1103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1104" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1105" fillId="1916" borderId="2053" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2053" fillId="1916" fontId="1105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1106" fillId="1919" borderId="2057" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2057" fillId="1919" fontId="1106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1107" fillId="1922" borderId="2061" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2061" fillId="1922" fontId="1107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1108" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1109" fillId="1925" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1925" fontId="1109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1110" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1111" fillId="1928" borderId="2065" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1112" fillId="1919" borderId="2069" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1113" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1114" fillId="1931" borderId="2073" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1115" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1116" fillId="1934" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1117" fillId="1922" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1118" fillId="1937" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2065" fillId="1928" fontId="1111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2069" fillId="1919" fontId="1112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2073" fillId="1931" fontId="1113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2073" fillId="1931" fontId="1114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1922" fontId="1115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1934" fontId="1116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1922" fontId="1117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1937" fontId="1118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="1940" borderId="2081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="1943" borderId="2085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="1946" borderId="2089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1123" fillId="1949" borderId="2093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1125" fillId="1952" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1127" fillId="1955" borderId="2097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="1946" borderId="2101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1129" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1130" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1132" fillId="1961" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1133" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="1964" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45225,7 +45859,7 @@
         <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L10" t="s">
         <v>72</v>
@@ -45269,7 +45903,7 @@
         <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>458</v>
+        <v>586</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
@@ -45307,7 +45941,7 @@
         <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="L12" t="s">
         <v>513</v>
@@ -45345,7 +45979,7 @@
         <v>256</v>
       </c>
       <c r="I13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L13" t="s">
         <v>383</v>
@@ -45380,7 +46014,7 @@
         <v>309</v>
       </c>
       <c r="I14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -45415,7 +46049,7 @@
         <v>257</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L15" t="s">
         <v>35</v>
@@ -45448,6 +46082,9 @@
       </c>
       <c r="H16" t="s">
         <v>258</v>
+      </c>
+      <c r="I16" t="s">
+        <v>318</v>
       </c>
       <c r="L16" t="s">
         <v>514</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro2-macro.xlsx
@@ -20,7 +20,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -34,21 +34,22 @@
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36638" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37806" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1829,6 +1830,30 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1861,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1135" x14ac:knownFonts="1">
+  <fonts count="1167" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8987,8 +9012,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1965">
+  <fills count="2019">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20119,8 +20346,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2106">
+  <borders count="2170">
     <border>
       <left/>
       <right/>
@@ -34065,6 +34598,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -41421,7 +42606,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1148">
+  <cellXfs count="1180">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44824,52 +46009,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1937" fontId="1118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1119" fillId="1940" borderId="2081" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2081" fillId="1940" fontId="1119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1121" fillId="1943" borderId="2085" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2085" fillId="1943" fontId="1121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1122" fillId="1946" borderId="2089" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2089" fillId="1946" fontId="1122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1123" fillId="1949" borderId="2093" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2093" fillId="1949" fontId="1123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1124" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1125" fillId="1952" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1952" fontId="1125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1126" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1127" fillId="1955" borderId="2097" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1128" fillId="1946" borderId="2101" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1129" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1130" fillId="1958" borderId="2105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1131" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1132" fillId="1961" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1133" fillId="1949" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1134" fillId="1964" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2097" fillId="1955" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2101" fillId="1946" fontId="1128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2105" fillId="1958" fontId="1129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2105" fillId="1958" fontId="1130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1949" fontId="1131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1961" fontId="1132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1949" fontId="1133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1964" fontId="1134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2113" fillId="1967" fontId="1135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1136" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2117" fillId="1970" fontId="1137" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2121" fillId="1973" fontId="1138" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2125" fillId="1976" fontId="1139" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1140" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1979" fontId="1141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2129" fillId="1982" fontId="1143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2133" fillId="1973" fontId="1144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2137" fillId="1985" fontId="1145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2137" fillId="1985" fontId="1146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1976" fontId="1147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1988" fontId="1148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1976" fontId="1149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1991" fontId="1150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="1994" borderId="2145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="1997" borderId="2149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="2000" borderId="2153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="2003" borderId="2157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1157" fillId="2006" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1159" fillId="2009" borderId="2161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="2000" borderId="2165" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="2012" borderId="2169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1162" fillId="2012" borderId="2169" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="2003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1164" fillId="2015" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1165" fillId="2003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1166" fillId="2018" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45167,7 +46448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -45253,21 +46534,24 @@
         <v>388</v>
       </c>
       <c r="Z1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>417</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -45303,7 +46587,7 @@
         <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L2" t="s">
         <v>308</v>
@@ -45348,21 +46632,24 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA2" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>176</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>436</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -45434,21 +46721,24 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA3" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>165</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>357</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>177</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -45517,21 +46807,24 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA4" t="s">
         <v>571</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>166</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>177</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>437</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -45591,21 +46884,24 @@
         <v>352</v>
       </c>
       <c r="Z5" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA5" t="s">
         <v>564</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>167</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>583</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>178</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>438</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -45635,7 +46931,7 @@
         <v>569</v>
       </c>
       <c r="K6" t="s">
-        <v>341</v>
+        <v>594</v>
       </c>
       <c r="L6" t="s">
         <v>470</v>
@@ -45662,21 +46958,24 @@
         <v>354</v>
       </c>
       <c r="Z6" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA6" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>450</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>172</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>179</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>439</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -45697,7 +46996,7 @@
         <v>453</v>
       </c>
       <c r="K7" t="s">
-        <v>539</v>
+        <v>341</v>
       </c>
       <c r="L7" t="s">
         <v>64</v>
@@ -45723,22 +47022,22 @@
       <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>451</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>173</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>180</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>440</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>542</v>
       </c>
     </row>
@@ -45758,6 +47057,9 @@
       <c r="I8" t="s">
         <v>321</v>
       </c>
+      <c r="K8" t="s">
+        <v>539</v>
+      </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
@@ -45779,22 +47081,22 @@
       <c r="X8" t="s">
     